--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455415D0-FE05-4C71-A112-939B4F66C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487607C7-3CEC-4FC6-9038-DF4C31E46C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -2630,16 +2630,6 @@
     <t>ULTIMATE PARENT PHONE</t>
   </si>
   <si>
-    <t>UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>ULTIMATE PARENT UNIQUE ENTITY ID (SAM)</t>
-  </si>
-  <si>
-    <t>The Unique Entity Identifier (SAM) for the entity.
-It is 12-character alpha-numeric. Example: F847A1795DE4</t>
-  </si>
-  <si>
     <t>This is the UEI number of the ultimate parent entity of the registrant</t>
   </si>
   <si>
@@ -2667,12 +2657,6 @@
     <t>HQ PARENT PHONE</t>
   </si>
   <si>
-    <t>DOMESTIC PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>HQ PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
     <t>This is the UEI number of the domestic parent entity of the registrant</t>
   </si>
   <si>
@@ -2686,9 +2670,6 @@
   </si>
   <si>
     <t>D&amp;B OPEN DATA FLAG</t>
-  </si>
-  <si>
-    <t>IMMEDIATE PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
   </si>
   <si>
     <t>This is the UEI number of the immediate parent entity of the registrant</t>
@@ -2849,6 +2830,25 @@
   </si>
   <si>
     <t>The office code is an up-to six character identifier representing a U.S. government office in the SAM Federal hierarchy. This code exists independently of the unique entity identifier used for registration purposes, i.e. UEI(SAM), DoDAAC, or CAGE Code.</t>
+  </si>
+  <si>
+    <t>UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>The UNIQUE ENTITY ID for the entity.
+It is 12-character alpha-numeric. Example: F847A1795DE4</t>
+  </si>
+  <si>
+    <t>IMMEDIATE PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>HQ PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>DOMESTIC PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>ULTIMATE PARENT UNIQUE ENTITY ID</t>
   </si>
 </sst>
 </file>
@@ -3877,6 +3877,50 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3921,50 +3965,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4344,7 +4344,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4383,23 +4383,23 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="150" t="s">
         <v>688</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="32" t="s">
@@ -4408,23 +4408,23 @@
       <c r="B3" s="47" t="s">
         <v>683</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="145" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147" t="s">
         <v>389</v>
       </c>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
     </row>
     <row r="4" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -4475,7 +4475,7 @@
     </row>
     <row r="5" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>854</v>
+        <v>919</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -4490,11 +4490,11 @@
         <v>12</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>856</v>
+        <v>920</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="126" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="21" t="s">
@@ -4520,46 +4520,46 @@
         <v>X</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="158" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="146" t="s">
-        <v>918</v>
-      </c>
-      <c r="B6" s="148">
+    <row r="6" spans="1:15" s="143" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="131" t="s">
+        <v>912</v>
+      </c>
+      <c r="B6" s="133">
         <v>2</v>
       </c>
-      <c r="C6" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="148">
-        <v>9</v>
-      </c>
-      <c r="F6" s="149" t="s">
-        <v>920</v>
-      </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155" t="s">
-        <v>908</v>
-      </c>
-      <c r="K6" s="146" t="s">
+      <c r="C6" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="133">
+        <v>0</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>914</v>
+      </c>
+      <c r="G6" s="138"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140" t="s">
+        <v>902</v>
+      </c>
+      <c r="K6" s="131" t="s">
         <v>408</v>
       </c>
-      <c r="L6" s="153">
+      <c r="L6" s="138">
         <v>1</v>
       </c>
-      <c r="M6" s="156" t="str">
+      <c r="M6" s="141" t="str">
         <f t="shared" ref="M6:M7" si="0">IF(L6&lt;=1,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N6" s="156" t="str">
+      <c r="N6" s="141" t="str">
         <f t="shared" ref="N6:N7" si="1">IF(L6&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O6" s="157" t="str">
+      <c r="O6" s="142" t="str">
         <f t="shared" ref="O6:O7" si="2">IF(L6&lt;=3,"X","")</f>
         <v>X</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>204</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J7" s="21">
         <v>1111</v>
@@ -4726,7 +4726,7 @@
         <v>751</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="H10" s="126" t="s">
         <v>392</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="13" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B13" s="20">
         <v>9</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="18" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B18" s="20">
         <v>14</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="28" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="116" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B28" s="20">
         <v>24</v>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="119" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G28" s="96"/>
       <c r="H28" s="128" t="s">
@@ -5687,7 +5687,7 @@
     </row>
     <row r="31" spans="1:15" ht="50" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B31" s="20">
         <v>27</v>
@@ -12523,7 +12523,7 @@
     </row>
     <row r="175" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B175" s="20">
         <v>171</v>
@@ -12538,7 +12538,7 @@
         <v>150</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G175" s="96"/>
       <c r="H175" s="128" t="s">
@@ -12570,7 +12570,7 @@
     </row>
     <row r="176" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
-        <v>873</v>
+        <v>921</v>
       </c>
       <c r="B176" s="20">
         <v>172</v>
@@ -12585,7 +12585,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G176" s="96"/>
       <c r="H176" s="128" t="s">
@@ -12617,7 +12617,7 @@
     </row>
     <row r="177" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B177" s="20">
         <v>173</v>
@@ -12632,7 +12632,7 @@
         <v>150</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G177" s="96"/>
       <c r="H177" s="128" t="s">
@@ -12664,7 +12664,7 @@
     </row>
     <row r="178" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B178" s="20">
         <v>174</v>
@@ -12679,7 +12679,7 @@
         <v>150</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G178" s="96"/>
       <c r="H178" s="128" t="s">
@@ -12711,7 +12711,7 @@
     </row>
     <row r="179" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B179" s="20">
         <v>175</v>
@@ -12726,7 +12726,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G179" s="96"/>
       <c r="H179" s="128" t="s">
@@ -12758,7 +12758,7 @@
     </row>
     <row r="180" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B180" s="20">
         <v>176</v>
@@ -12773,7 +12773,7 @@
         <v>50</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G180" s="96"/>
       <c r="H180" s="128" t="s">
@@ -12805,7 +12805,7 @@
     </row>
     <row r="181" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="21" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B181" s="20">
         <v>177</v>
@@ -12820,7 +12820,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G181" s="96"/>
       <c r="H181" s="128" t="s">
@@ -12852,7 +12852,7 @@
     </row>
     <row r="182" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B182" s="20">
         <v>178</v>
@@ -12867,7 +12867,7 @@
         <v>55</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="G182" s="96"/>
       <c r="H182" s="128" t="s">
@@ -12899,7 +12899,7 @@
     </row>
     <row r="183" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B183" s="20">
         <v>179</v>
@@ -12914,7 +12914,7 @@
         <v>30</v>
       </c>
       <c r="F183" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G183" s="96"/>
       <c r="H183" s="128" t="s">
@@ -12946,7 +12946,7 @@
     </row>
     <row r="184" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A184" s="23" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B184" s="20">
         <v>180</v>
@@ -12968,7 +12968,7 @@
         <v>737</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J184" s="21" t="s">
         <v>427</v>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="185" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
-        <v>867</v>
+        <v>922</v>
       </c>
       <c r="B185" s="20">
         <v>181</v>
@@ -13010,14 +13010,14 @@
         <v>12</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G185" s="96"/>
       <c r="H185" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J185" s="96" t="s">
         <v>816</v>
@@ -13043,29 +13043,29 @@
       </c>
     </row>
     <row r="186" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A186" s="145" t="s">
-        <v>918</v>
-      </c>
-      <c r="B186" s="147">
+      <c r="A186" s="130" t="s">
+        <v>912</v>
+      </c>
+      <c r="B186" s="132">
         <v>182</v>
       </c>
-      <c r="C186" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="D186" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="E186" s="147">
-        <v>13</v>
-      </c>
-      <c r="F186" s="149" t="s">
-        <v>919</v>
-      </c>
-      <c r="G186" s="145"/>
-      <c r="H186" s="150"/>
-      <c r="I186" s="151"/>
-      <c r="J186" s="152" t="s">
-        <v>909</v>
+      <c r="C186" s="132" t="s">
+        <v>396</v>
+      </c>
+      <c r="D186" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="E186" s="132">
+        <v>0</v>
+      </c>
+      <c r="F186" s="134" t="s">
+        <v>913</v>
+      </c>
+      <c r="G186" s="130"/>
+      <c r="H186" s="135"/>
+      <c r="I186" s="136"/>
+      <c r="J186" s="137" t="s">
+        <v>903</v>
       </c>
       <c r="K186" s="29" t="s">
         <v>398</v>
@@ -13089,7 +13089,7 @@
     </row>
     <row r="187" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A187" s="23" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B187" s="20">
         <v>183</v>
@@ -13111,7 +13111,7 @@
         <v>737</v>
       </c>
       <c r="I187" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J187" s="21" t="s">
         <v>501</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="188" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A188" s="23" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B188" s="20">
         <v>184</v>
@@ -13160,7 +13160,7 @@
         <v>737</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J188" s="21" t="s">
         <v>499</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="189" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A189" s="23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B189" s="20">
         <v>185</v>
@@ -13209,7 +13209,7 @@
         <v>737</v>
       </c>
       <c r="I189" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J189" s="21" t="s">
         <v>481</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="190" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A190" s="23" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B190" s="20">
         <v>186</v>
@@ -13258,7 +13258,7 @@
         <v>737</v>
       </c>
       <c r="I190" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>428</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="191" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A191" s="23" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B191" s="20">
         <v>187</v>
@@ -13307,7 +13307,7 @@
         <v>737</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J191" s="21" t="s">
         <v>483</v>
@@ -13334,7 +13334,7 @@
     </row>
     <row r="192" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A192" s="23" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B192" s="20">
         <v>188</v>
@@ -13356,7 +13356,7 @@
         <v>737</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J192" s="21" t="s">
         <v>482</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="193" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A193" s="23" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B193" s="20">
         <v>189</v>
@@ -13405,7 +13405,7 @@
         <v>737</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>406</v>
@@ -13432,7 +13432,7 @@
     </row>
     <row r="194" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A194" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B194" s="20">
         <v>190</v>
@@ -13454,7 +13454,7 @@
         <v>737</v>
       </c>
       <c r="I194" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J194" s="21" t="s">
         <v>427</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="195" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="B195" s="20">
         <v>191</v>
@@ -13496,14 +13496,14 @@
         <v>12</v>
       </c>
       <c r="F195" s="25" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G195" s="96"/>
       <c r="H195" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I195" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J195" s="96" t="s">
         <v>816</v>
@@ -13529,29 +13529,29 @@
       </c>
     </row>
     <row r="196" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A196" s="159" t="s">
-        <v>918</v>
-      </c>
-      <c r="B196" s="147">
+      <c r="A196" s="144" t="s">
+        <v>912</v>
+      </c>
+      <c r="B196" s="132">
         <v>192</v>
       </c>
-      <c r="C196" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="D196" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="E196" s="147">
-        <v>13</v>
-      </c>
-      <c r="F196" s="149" t="s">
-        <v>921</v>
-      </c>
-      <c r="G196" s="145"/>
-      <c r="H196" s="150"/>
-      <c r="I196" s="151"/>
-      <c r="J196" s="152" t="s">
-        <v>909</v>
+      <c r="C196" s="132" t="s">
+        <v>396</v>
+      </c>
+      <c r="D196" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="E196" s="132">
+        <v>0</v>
+      </c>
+      <c r="F196" s="134" t="s">
+        <v>915</v>
+      </c>
+      <c r="G196" s="130"/>
+      <c r="H196" s="135"/>
+      <c r="I196" s="136"/>
+      <c r="J196" s="137" t="s">
+        <v>903</v>
       </c>
       <c r="K196" s="29" t="s">
         <v>398</v>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="197" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A197" s="23" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B197" s="20">
         <v>193</v>
@@ -13597,7 +13597,7 @@
         <v>737</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J197" s="21" t="s">
         <v>501</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="198" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A198" s="23" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B198" s="20">
         <v>194</v>
@@ -13646,7 +13646,7 @@
         <v>737</v>
       </c>
       <c r="I198" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J198" s="21" t="s">
         <v>499</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="199" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A199" s="23" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B199" s="20">
         <v>195</v>
@@ -13695,7 +13695,7 @@
         <v>737</v>
       </c>
       <c r="I199" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J199" s="21" t="s">
         <v>481</v>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="200" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A200" s="23" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B200" s="20">
         <v>196</v>
@@ -13744,7 +13744,7 @@
         <v>737</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J200" s="15" t="s">
         <v>428</v>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="201" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A201" s="23" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B201" s="20">
         <v>197</v>
@@ -13793,7 +13793,7 @@
         <v>737</v>
       </c>
       <c r="I201" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J201" s="21" t="s">
         <v>483</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="202" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A202" s="23" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B202" s="20">
         <v>198</v>
@@ -13842,7 +13842,7 @@
         <v>737</v>
       </c>
       <c r="I202" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J202" s="21" t="s">
         <v>482</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="203" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A203" s="23" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B203" s="20">
         <v>199</v>
@@ -13891,7 +13891,7 @@
         <v>737</v>
       </c>
       <c r="I203" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J203" s="15" t="s">
         <v>406</v>
@@ -13940,7 +13940,7 @@
         <v>737</v>
       </c>
       <c r="I204" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J204" s="21" t="s">
         <v>427</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="205" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A205" s="26" t="s">
-        <v>855</v>
+        <v>924</v>
       </c>
       <c r="B205" s="20">
         <v>201</v>
@@ -13982,14 +13982,14 @@
         <v>12</v>
       </c>
       <c r="F205" s="25" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G205" s="96"/>
       <c r="H205" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I205" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J205" s="96" t="s">
         <v>816</v>
@@ -14015,29 +14015,29 @@
       </c>
     </row>
     <row r="206" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A206" s="159" t="s">
-        <v>918</v>
-      </c>
-      <c r="B206" s="147">
+      <c r="A206" s="144" t="s">
+        <v>912</v>
+      </c>
+      <c r="B206" s="132">
         <v>202</v>
       </c>
-      <c r="C206" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="D206" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="E206" s="147">
-        <v>13</v>
-      </c>
-      <c r="F206" s="149" t="s">
-        <v>921</v>
-      </c>
-      <c r="G206" s="145"/>
-      <c r="H206" s="150"/>
-      <c r="I206" s="151"/>
-      <c r="J206" s="152" t="s">
-        <v>909</v>
+      <c r="C206" s="132" t="s">
+        <v>396</v>
+      </c>
+      <c r="D206" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="E206" s="132">
+        <v>0</v>
+      </c>
+      <c r="F206" s="134" t="s">
+        <v>915</v>
+      </c>
+      <c r="G206" s="130"/>
+      <c r="H206" s="135"/>
+      <c r="I206" s="136"/>
+      <c r="J206" s="137" t="s">
+        <v>903</v>
       </c>
       <c r="K206" s="29" t="s">
         <v>398</v>
@@ -14083,7 +14083,7 @@
         <v>737</v>
       </c>
       <c r="I207" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J207" s="21" t="s">
         <v>501</v>
@@ -14132,7 +14132,7 @@
         <v>737</v>
       </c>
       <c r="I208" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J208" s="21" t="s">
         <v>499</v>
@@ -14181,7 +14181,7 @@
         <v>737</v>
       </c>
       <c r="I209" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J209" s="21" t="s">
         <v>481</v>
@@ -14230,7 +14230,7 @@
         <v>737</v>
       </c>
       <c r="I210" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J210" s="15" t="s">
         <v>428</v>
@@ -14279,7 +14279,7 @@
         <v>737</v>
       </c>
       <c r="I211" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J211" s="21" t="s">
         <v>483</v>
@@ -14328,7 +14328,7 @@
         <v>737</v>
       </c>
       <c r="I212" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J212" s="21" t="s">
         <v>482</v>
@@ -14377,7 +14377,7 @@
         <v>737</v>
       </c>
       <c r="I213" s="24" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J213" s="15" t="s">
         <v>406</v>
@@ -14422,7 +14422,7 @@
         <v>545</v>
       </c>
       <c r="G214" s="24" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="H214" s="126" t="s">
         <v>204</v>
@@ -18096,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="25" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G292" s="21"/>
       <c r="H292" s="126" t="s">
@@ -19047,7 +19047,7 @@
         <v>6</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G312" s="21"/>
       <c r="H312" s="126" t="s">
@@ -20647,7 +20647,7 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="97" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B346" s="20">
         <v>342</v>
@@ -20662,7 +20662,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="119" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G346" s="98"/>
       <c r="H346" s="128" t="s">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="I346" s="113"/>
       <c r="J346" s="96" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K346" s="97" t="s">
         <v>408</v>
@@ -20694,7 +20694,7 @@
     </row>
     <row r="347" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A347" s="97" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B347" s="20">
         <v>343</v>
@@ -20709,7 +20709,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="119" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G347" s="98"/>
       <c r="H347" s="128" t="s">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="I347" s="113"/>
       <c r="J347" s="96" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K347" s="97" t="s">
         <v>398</v>
@@ -20741,7 +20741,7 @@
     </row>
     <row r="348" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A348" s="97" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B348" s="20">
         <v>344</v>
@@ -20756,17 +20756,17 @@
         <v>10</v>
       </c>
       <c r="F348" s="119" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G348" s="98"/>
       <c r="H348" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I348" s="113" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J348" s="96" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K348" s="97" t="s">
         <v>398</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="349" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A349" s="97" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B349" s="20">
         <v>345</v>
@@ -20805,17 +20805,17 @@
         <v>10</v>
       </c>
       <c r="F349" s="119" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G349" s="98"/>
       <c r="H349" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I349" s="113" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J349" s="96" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K349" s="97" t="s">
         <v>398</v>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="350" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A350" s="97" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B350" s="20">
         <v>346</v>
@@ -20854,17 +20854,17 @@
         <v>10</v>
       </c>
       <c r="F350" s="119" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G350" s="98"/>
       <c r="H350" s="128" t="s">
         <v>737</v>
       </c>
       <c r="I350" s="113" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J350" s="96" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K350" s="97" t="s">
         <v>398</v>
@@ -21518,7 +21518,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="97" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B365" s="20">
         <v>361</v>
@@ -21689,10 +21689,10 @@
       <c r="B5" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="142"/>
+      <c r="D5" s="157"/>
       <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
@@ -21751,10 +21751,10 @@
       <c r="B10" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="159"/>
       <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
@@ -21813,10 +21813,10 @@
       <c r="B15" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="144"/>
+      <c r="D15" s="159"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="39" t="s">
@@ -21878,10 +21878,10 @@
       <c r="B20" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="159"/>
       <c r="F20" s="9" t="s">
         <v>183</v>
       </c>
@@ -21940,10 +21940,10 @@
       <c r="B25" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="159"/>
       <c r="F25" s="9" t="s">
         <v>12</v>
       </c>
@@ -22792,22 +22792,22 @@
       <c r="B147" s="14"/>
     </row>
     <row r="148" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="138" t="s">
+      <c r="C148" s="153" t="s">
         <v>711</v>
       </c>
-      <c r="D148" s="138"/>
-      <c r="E148" s="138"/>
-      <c r="F148" s="138"/>
-      <c r="G148" s="138"/>
+      <c r="D148" s="153"/>
+      <c r="E148" s="153"/>
+      <c r="F148" s="153"/>
+      <c r="G148" s="153"/>
     </row>
     <row r="149" spans="2:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="139" t="s">
+      <c r="C149" s="154" t="s">
         <v>802</v>
       </c>
-      <c r="D149" s="140"/>
-      <c r="E149" s="140"/>
-      <c r="F149" s="140"/>
-      <c r="G149" s="140"/>
+      <c r="D149" s="155"/>
+      <c r="E149" s="155"/>
+      <c r="F149" s="155"/>
+      <c r="G149" s="155"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C151" s="9" t="s">
@@ -23104,7 +23104,7 @@
         <v>38500000</v>
       </c>
       <c r="F185" s="78"/>
-      <c r="H185" s="138" t="s">
+      <c r="H185" s="153" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23122,7 +23122,7 @@
         <v>27500000</v>
       </c>
       <c r="F186" s="78"/>
-      <c r="H186" s="138"/>
+      <c r="H186" s="153"/>
     </row>
     <row r="187" spans="2:8" ht="31" x14ac:dyDescent="0.25">
       <c r="B187" s="108">
@@ -23954,7 +23954,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487607C7-3CEC-4FC6-9038-DF4C31E46C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3510964-6D9D-48A5-AD12-B89659DB82C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="926">
   <si>
     <t>Breakdown of the string and example below:</t>
   </si>
@@ -2849,6 +2849,9 @@
   </si>
   <si>
     <t>ULTIMATE PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>Last Updated: 2022-04-01</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +3507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3966,6 +3969,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4338,13 +4344,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor indexed="18"/>
   </sheetPr>
-  <dimension ref="A1:O366"/>
+  <dimension ref="A1:O368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A206" sqref="A206"/>
+      <selection pane="bottomRight" activeCell="X350" sqref="X350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20694,7 +20700,7 @@
     </row>
     <row r="347" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A347" s="97" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B347" s="20">
         <v>343</v>
@@ -20715,7 +20721,9 @@
       <c r="H347" s="128" t="s">
         <v>737</v>
       </c>
-      <c r="I347" s="113"/>
+      <c r="I347" s="113" t="s">
+        <v>889</v>
+      </c>
       <c r="J347" s="96" t="s">
         <v>901</v>
       </c>
@@ -20739,9 +20747,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A348" s="97" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B348" s="20">
         <v>344</v>
@@ -20763,7 +20771,7 @@
         <v>737</v>
       </c>
       <c r="I348" s="113" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J348" s="96" t="s">
         <v>901</v>
@@ -20788,9 +20796,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A349" s="97" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B349" s="20">
         <v>345</v>
@@ -20812,7 +20820,7 @@
         <v>737</v>
       </c>
       <c r="I349" s="113" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J349" s="96" t="s">
         <v>901</v>
@@ -20839,7 +20847,7 @@
     </row>
     <row r="350" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A350" s="97" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B350" s="20">
         <v>346</v>
@@ -20860,9 +20868,7 @@
       <c r="H350" s="128" t="s">
         <v>737</v>
       </c>
-      <c r="I350" s="113" t="s">
-        <v>891</v>
-      </c>
+      <c r="I350" s="113"/>
       <c r="J350" s="96" t="s">
         <v>901</v>
       </c>
@@ -20870,19 +20876,19 @@
         <v>398</v>
       </c>
       <c r="L350" s="98">
-        <f t="shared" si="64"/>
+        <f>IF(K350="Public",1,IF(K350="FOUO",2,IF(K350="Sensitive",3,IF(K350="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M350" s="99" t="str">
-        <f t="shared" si="62"/>
+        <f>IF(L350&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N350" s="111" t="str">
-        <f t="shared" si="63"/>
+        <f>IF(L350&lt;=2,"X","")</f>
         <v>X</v>
       </c>
       <c r="O350" s="112" t="str">
-        <f t="shared" si="60"/>
+        <f>IF(L350&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -21605,6 +21611,11 @@
       <c r="O366" s="94" t="str">
         <f t="shared" si="60"/>
         <v>X</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A368" s="160" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Sensitive File V3 Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04TCK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI40\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04BMK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI44\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE972B-DA42-4557-97BB-434FA0CFF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E1AB3-F05D-45CD-A86F-0C1130BE77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="925">
   <si>
     <t>SAM DATA ELEMENT LIST</t>
   </si>
@@ -1431,9 +1431,6 @@
   </si>
   <si>
     <t>ACCOUNTS PAYABLE POC EMAIL</t>
-  </si>
-  <si>
-    <t>MPIN</t>
   </si>
   <si>
     <t>12345A789</t>
@@ -2863,7 +2860,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot; &quot;;&quot;(&quot;#,##0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2970,6 +2967,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3595,7 +3612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3949,6 +3966,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4220,28 +4258,28 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="K288" sqref="K288:O288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1"/>
+    <col min="1" max="1" width="65.15625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" customWidth="1"/>
+    <col min="4" max="4" width="25.15625" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="10" width="50.85546875" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.41796875" customWidth="1"/>
+    <col min="9" max="9" width="34.41796875" customWidth="1"/>
+    <col min="10" max="10" width="50.83984375" customWidth="1"/>
+    <col min="11" max="12" width="11.578125" customWidth="1"/>
+    <col min="13" max="14" width="9.41796875" customWidth="1"/>
+    <col min="15" max="15" width="10.41796875" customWidth="1"/>
+    <col min="16" max="26" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -4262,23 +4300,23 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="125"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="132"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -4287,23 +4325,23 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -4346,10 +4384,10 @@
         <v>16</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>924</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -5605,7 +5643,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L31" s="19">
         <v>2</v>
@@ -5653,7 +5691,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L32" s="19">
         <v>2</v>
@@ -5986,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L39" s="19">
         <v>2</v>
@@ -7215,7 +7253,7 @@
         <v>171</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L65" s="19">
         <f t="shared" si="3"/>
@@ -7262,7 +7300,7 @@
         <v>173</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L66" s="19">
         <f t="shared" si="3"/>
@@ -7311,7 +7349,7 @@
         <v>176</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L67" s="19">
         <f t="shared" si="3"/>
@@ -7358,7 +7396,7 @@
         <v>178</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L68" s="19">
         <f t="shared" si="3"/>
@@ -7405,7 +7443,7 @@
         <v>180</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L69" s="19">
         <f t="shared" si="3"/>
@@ -7975,7 +8013,7 @@
         <v>171</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L81" s="19">
         <f t="shared" si="3"/>
@@ -8022,7 +8060,7 @@
         <v>173</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L82" s="19">
         <f t="shared" si="3"/>
@@ -8071,7 +8109,7 @@
         <v>176</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L83" s="19">
         <f t="shared" si="3"/>
@@ -8118,7 +8156,7 @@
         <v>178</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="3"/>
@@ -8165,7 +8203,7 @@
         <v>180</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L85" s="19">
         <f t="shared" si="3"/>
@@ -8735,7 +8773,7 @@
         <v>171</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L97" s="19">
         <f t="shared" si="4"/>
@@ -8782,7 +8820,7 @@
         <v>173</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L98" s="19">
         <f t="shared" si="4"/>
@@ -8831,7 +8869,7 @@
         <v>176</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L99" s="19">
         <f t="shared" si="4"/>
@@ -8878,7 +8916,7 @@
         <v>178</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L100" s="19">
         <f t="shared" si="4"/>
@@ -8925,7 +8963,7 @@
         <v>180</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L101" s="19">
         <f t="shared" si="4"/>
@@ -9495,7 +9533,7 @@
         <v>171</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L113" s="19">
         <f t="shared" si="4"/>
@@ -9542,7 +9580,7 @@
         <v>173</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L114" s="19">
         <f t="shared" si="4"/>
@@ -9591,7 +9629,7 @@
         <v>176</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L115" s="19">
         <f t="shared" si="4"/>
@@ -9638,7 +9676,7 @@
         <v>178</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L116" s="19">
         <f t="shared" si="4"/>
@@ -9685,7 +9723,7 @@
         <v>180</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L117" s="19">
         <f t="shared" si="4"/>
@@ -10255,7 +10293,7 @@
         <v>171</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L129" s="19">
         <f t="shared" si="5"/>
@@ -10302,7 +10340,7 @@
         <v>173</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L130" s="19">
         <f t="shared" si="5"/>
@@ -10351,7 +10389,7 @@
         <v>176</v>
       </c>
       <c r="K131" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L131" s="19">
         <f t="shared" si="5"/>
@@ -10398,7 +10436,7 @@
         <v>178</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L132" s="19">
         <f t="shared" si="5"/>
@@ -10445,7 +10483,7 @@
         <v>180</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L133" s="19">
         <f t="shared" si="5"/>
@@ -11015,7 +11053,7 @@
         <v>171</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L145" s="19">
         <f t="shared" si="5"/>
@@ -11062,7 +11100,7 @@
         <v>173</v>
       </c>
       <c r="K146" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L146" s="19">
         <f t="shared" si="5"/>
@@ -11111,7 +11149,7 @@
         <v>176</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L147" s="19">
         <f t="shared" si="5"/>
@@ -11158,7 +11196,7 @@
         <v>178</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L148" s="19">
         <f t="shared" si="5"/>
@@ -11205,7 +11243,7 @@
         <v>180</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L149" s="19">
         <f t="shared" si="5"/>
@@ -11252,7 +11290,7 @@
         <v>151</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L150" s="19">
         <f t="shared" ref="L150:L181" si="6">IF(K150="Public",1,IF(K150="FOUO (CUI)",2,IF(K150="Sensitive (CUI)",3,IF(K150="System-Only",4))))</f>
@@ -11299,7 +11337,7 @@
         <v>40</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L151" s="19">
         <f t="shared" si="6"/>
@@ -11346,7 +11384,7 @@
         <v>154</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L152" s="19">
         <f t="shared" si="6"/>
@@ -11393,7 +11431,7 @@
         <v>156</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L153" s="19">
         <f t="shared" si="6"/>
@@ -11440,7 +11478,7 @@
         <v>158</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L154" s="19">
         <f t="shared" si="6"/>
@@ -11487,7 +11525,7 @@
         <v>160</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L155" s="19">
         <f t="shared" si="6"/>
@@ -11534,7 +11572,7 @@
         <v>162</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L156" s="19">
         <f t="shared" si="6"/>
@@ -11583,7 +11621,7 @@
         <v>164</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L157" s="19">
         <f t="shared" si="6"/>
@@ -11630,7 +11668,7 @@
         <v>166</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L158" s="19">
         <f t="shared" si="6"/>
@@ -11677,7 +11715,7 @@
         <v>81</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L159" s="19">
         <f t="shared" si="6"/>
@@ -11726,7 +11764,7 @@
         <v>169</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L160" s="19">
         <f t="shared" si="6"/>
@@ -11775,7 +11813,7 @@
         <v>171</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L161" s="19">
         <f t="shared" si="6"/>
@@ -11822,7 +11860,7 @@
         <v>173</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L162" s="19">
         <f t="shared" si="6"/>
@@ -11871,7 +11909,7 @@
         <v>176</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L163" s="19">
         <f t="shared" si="6"/>
@@ -11918,7 +11956,7 @@
         <v>178</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L164" s="19">
         <f t="shared" si="6"/>
@@ -11965,7 +12003,7 @@
         <v>180</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L165" s="19">
         <f t="shared" si="6"/>
@@ -12012,7 +12050,7 @@
         <v>151</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L166" s="19">
         <f t="shared" si="6"/>
@@ -12059,7 +12097,7 @@
         <v>40</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L167" s="19">
         <f t="shared" si="6"/>
@@ -12106,7 +12144,7 @@
         <v>154</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L168" s="19">
         <f t="shared" si="6"/>
@@ -12153,7 +12191,7 @@
         <v>156</v>
       </c>
       <c r="K169" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L169" s="19">
         <f t="shared" si="6"/>
@@ -12202,7 +12240,7 @@
         <v>171</v>
       </c>
       <c r="K170" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L170" s="19">
         <f t="shared" si="6"/>
@@ -12249,7 +12287,7 @@
         <v>173</v>
       </c>
       <c r="K171" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L171" s="19">
         <f t="shared" si="6"/>
@@ -12298,7 +12336,7 @@
         <v>176</v>
       </c>
       <c r="K172" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L172" s="19">
         <f t="shared" si="6"/>
@@ -12345,7 +12383,7 @@
         <v>178</v>
       </c>
       <c r="K173" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L173" s="19">
         <f t="shared" si="6"/>
@@ -12392,7 +12430,7 @@
         <v>180</v>
       </c>
       <c r="K174" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L174" s="19">
         <f t="shared" si="6"/>
@@ -12439,7 +12477,7 @@
         <v>288</v>
       </c>
       <c r="K175" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L175" s="41">
         <f t="shared" si="6"/>
@@ -12486,7 +12524,7 @@
         <v>291</v>
       </c>
       <c r="K176" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L176" s="41">
         <f t="shared" si="6"/>
@@ -12533,7 +12571,7 @@
         <v>66</v>
       </c>
       <c r="K177" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L177" s="41">
         <f t="shared" si="6"/>
@@ -12580,7 +12618,7 @@
         <v>68</v>
       </c>
       <c r="K178" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L178" s="41">
         <f t="shared" si="6"/>
@@ -12627,7 +12665,7 @@
         <v>70</v>
       </c>
       <c r="K179" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L179" s="41">
         <f t="shared" si="6"/>
@@ -12674,7 +12712,7 @@
         <v>300</v>
       </c>
       <c r="K180" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L180" s="41">
         <f t="shared" si="6"/>
@@ -12721,7 +12759,7 @@
         <v>81</v>
       </c>
       <c r="K181" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L181" s="41">
         <f t="shared" si="6"/>
@@ -12768,7 +12806,7 @@
         <v>73</v>
       </c>
       <c r="K182" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L182" s="41">
         <f t="shared" ref="L182:L213" si="7">IF(K182="Public",1,IF(K182="FOUO (CUI)",2,IF(K182="Sensitive (CUI)",3,IF(K182="System-Only",4))))</f>
@@ -12815,7 +12853,7 @@
         <v>307</v>
       </c>
       <c r="K183" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L183" s="41">
         <f t="shared" si="7"/>
@@ -12864,7 +12902,7 @@
         <v>288</v>
       </c>
       <c r="K184" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L184" s="19">
         <f t="shared" si="7"/>
@@ -12913,7 +12951,7 @@
         <v>291</v>
       </c>
       <c r="K185" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L185" s="41">
         <f t="shared" si="7"/>
@@ -12958,7 +12996,7 @@
         <v>313</v>
       </c>
       <c r="K186" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L186" s="19">
         <f t="shared" si="7"/>
@@ -13007,7 +13045,7 @@
         <v>66</v>
       </c>
       <c r="K187" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L187" s="19">
         <f t="shared" si="7"/>
@@ -13056,7 +13094,7 @@
         <v>68</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L188" s="19">
         <f t="shared" si="7"/>
@@ -13105,7 +13143,7 @@
         <v>70</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L189" s="19">
         <f t="shared" si="7"/>
@@ -13154,7 +13192,7 @@
         <v>300</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L190" s="19">
         <f t="shared" si="7"/>
@@ -13203,7 +13241,7 @@
         <v>81</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L191" s="19">
         <f t="shared" si="7"/>
@@ -13252,7 +13290,7 @@
         <v>73</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L192" s="19">
         <f t="shared" si="7"/>
@@ -13301,7 +13339,7 @@
         <v>307</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L193" s="19">
         <f t="shared" si="7"/>
@@ -13350,7 +13388,7 @@
         <v>288</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L194" s="19">
         <f t="shared" si="7"/>
@@ -13399,7 +13437,7 @@
         <v>291</v>
       </c>
       <c r="K195" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L195" s="41">
         <f t="shared" si="7"/>
@@ -13444,7 +13482,7 @@
         <v>313</v>
       </c>
       <c r="K196" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L196" s="19">
         <f t="shared" si="7"/>
@@ -13493,7 +13531,7 @@
         <v>66</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L197" s="19">
         <f t="shared" si="7"/>
@@ -13542,7 +13580,7 @@
         <v>68</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L198" s="19">
         <f t="shared" si="7"/>
@@ -13591,7 +13629,7 @@
         <v>70</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L199" s="19">
         <f t="shared" si="7"/>
@@ -13640,7 +13678,7 @@
         <v>300</v>
       </c>
       <c r="K200" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L200" s="19">
         <f t="shared" si="7"/>
@@ -13689,7 +13727,7 @@
         <v>81</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L201" s="19">
         <f t="shared" si="7"/>
@@ -13738,7 +13776,7 @@
         <v>73</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L202" s="19">
         <f t="shared" si="7"/>
@@ -13787,7 +13825,7 @@
         <v>307</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L203" s="19">
         <f t="shared" si="7"/>
@@ -13836,7 +13874,7 @@
         <v>288</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L204" s="19">
         <f t="shared" si="7"/>
@@ -13885,7 +13923,7 @@
         <v>291</v>
       </c>
       <c r="K205" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L205" s="41">
         <f t="shared" si="7"/>
@@ -13930,7 +13968,7 @@
         <v>313</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L206" s="19">
         <f t="shared" si="7"/>
@@ -13979,7 +14017,7 @@
         <v>66</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L207" s="19">
         <f t="shared" si="7"/>
@@ -14028,7 +14066,7 @@
         <v>68</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L208" s="19">
         <f t="shared" si="7"/>
@@ -14077,7 +14115,7 @@
         <v>70</v>
       </c>
       <c r="K209" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L209" s="19">
         <f t="shared" si="7"/>
@@ -14126,7 +14164,7 @@
         <v>300</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L210" s="19">
         <f t="shared" si="7"/>
@@ -14175,7 +14213,7 @@
         <v>81</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L211" s="19">
         <f t="shared" si="7"/>
@@ -14224,7 +14262,7 @@
         <v>73</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L212" s="19">
         <f t="shared" si="7"/>
@@ -14273,7 +14311,7 @@
         <v>307</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L213" s="19">
         <f t="shared" si="7"/>
@@ -14322,7 +14360,7 @@
         <v>133</v>
       </c>
       <c r="K214" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L214" s="19">
         <v>2</v>
@@ -14368,7 +14406,7 @@
         <v>348</v>
       </c>
       <c r="K215" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L215" s="19">
         <v>2</v>
@@ -14414,7 +14452,7 @@
         <v>351</v>
       </c>
       <c r="K216" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L216" s="19">
         <v>2</v>
@@ -14460,7 +14498,7 @@
         <v>353</v>
       </c>
       <c r="K217" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L217" s="19">
         <v>2</v>
@@ -14506,7 +14544,7 @@
         <v>58</v>
       </c>
       <c r="K218" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L218" s="19">
         <v>2</v>
@@ -14552,7 +14590,7 @@
         <v>356</v>
       </c>
       <c r="K219" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L219" s="19">
         <v>2</v>
@@ -14598,7 +14636,7 @@
         <v>358</v>
       </c>
       <c r="K220" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L220" s="19">
         <v>2</v>
@@ -14644,7 +14682,7 @@
         <v>70</v>
       </c>
       <c r="K221" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L221" s="19">
         <v>2</v>
@@ -14690,7 +14728,7 @@
         <v>361</v>
       </c>
       <c r="K222" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L222" s="19">
         <v>2</v>
@@ -14736,7 +14774,7 @@
         <v>81</v>
       </c>
       <c r="K223" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L223" s="19">
         <v>2</v>
@@ -14782,7 +14820,7 @@
         <v>73</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L224" s="19">
         <v>2</v>
@@ -14828,7 +14866,7 @@
         <v>86</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L225" s="19">
         <v>2</v>
@@ -14874,7 +14912,7 @@
         <v>366</v>
       </c>
       <c r="K226" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L226" s="19">
         <v>2</v>
@@ -14920,7 +14958,7 @@
         <v>368</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L227" s="19">
         <v>2</v>
@@ -14966,7 +15004,7 @@
         <v>370</v>
       </c>
       <c r="K228" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L228" s="19">
         <v>2</v>
@@ -15012,7 +15050,7 @@
         <v>370</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L229" s="19">
         <v>2</v>
@@ -15058,7 +15096,7 @@
         <v>86</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L230" s="19">
         <v>2</v>
@@ -15104,7 +15142,7 @@
         <v>151</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L231" s="19">
         <f t="shared" ref="L231:L239" si="8">IF(K231="Public",1,IF(K231="FOUO (CUI)",2,IF(K231="Sensitive (CUI)",3,IF(K231="System-Only",4))))</f>
@@ -15151,7 +15189,7 @@
         <v>40</v>
       </c>
       <c r="K232" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L232" s="19">
         <f t="shared" si="8"/>
@@ -15198,7 +15236,7 @@
         <v>154</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L233" s="19">
         <f t="shared" si="8"/>
@@ -15245,7 +15283,7 @@
         <v>156</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L234" s="19">
         <f t="shared" si="8"/>
@@ -15294,7 +15332,7 @@
         <v>171</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L235" s="19">
         <f t="shared" si="8"/>
@@ -15341,7 +15379,7 @@
         <v>173</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L236" s="19">
         <f t="shared" si="8"/>
@@ -15390,7 +15428,7 @@
         <v>176</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L237" s="19">
         <f t="shared" si="8"/>
@@ -15437,7 +15475,7 @@
         <v>178</v>
       </c>
       <c r="K238" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L238" s="19">
         <f t="shared" si="8"/>
@@ -15484,7 +15522,7 @@
         <v>180</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L239" s="19">
         <f t="shared" si="8"/>
@@ -15533,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L240" s="19">
         <v>3</v>
@@ -15579,7 +15617,7 @@
         <v>411112260</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L241" s="19">
         <v>3</v>
@@ -15627,7 +15665,7 @@
         <v>391</v>
       </c>
       <c r="K242" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L242" s="19">
         <v>2</v>
@@ -15675,7 +15713,7 @@
         <v>393</v>
       </c>
       <c r="K243" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L243" s="19">
         <v>2</v>
@@ -15723,7 +15761,7 @@
         <v>396</v>
       </c>
       <c r="K244" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L244" s="19">
         <v>3</v>
@@ -15771,7 +15809,7 @@
         <v>398</v>
       </c>
       <c r="K245" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L245" s="19">
         <v>3</v>
@@ -15819,7 +15857,7 @@
         <v>400</v>
       </c>
       <c r="K246" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L246" s="19">
         <v>3</v>
@@ -15867,7 +15905,7 @@
         <v>403</v>
       </c>
       <c r="K247" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L247" s="19">
         <v>3</v>
@@ -15913,7 +15951,7 @@
         <v>1026310</v>
       </c>
       <c r="K248" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L248" s="19">
         <v>3</v>
@@ -15959,7 +15997,7 @@
         <v>406</v>
       </c>
       <c r="K249" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L249" s="19">
         <v>3</v>
@@ -16005,7 +16043,7 @@
         <v>86</v>
       </c>
       <c r="K250" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L250" s="19">
         <v>3</v>
@@ -16053,7 +16091,7 @@
         <v>307</v>
       </c>
       <c r="K251" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L251" s="19">
         <v>3</v>
@@ -16101,7 +16139,7 @@
         <v>176</v>
       </c>
       <c r="K252" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L252" s="19">
         <v>3</v>
@@ -16149,7 +16187,7 @@
         <v>413</v>
       </c>
       <c r="K253" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L253" s="19">
         <v>3</v>
@@ -16197,7 +16235,7 @@
         <v>415</v>
       </c>
       <c r="K254" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L254" s="19">
         <v>3</v>
@@ -16243,7 +16281,7 @@
         <v>417</v>
       </c>
       <c r="K255" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L255" s="19">
         <v>3</v>
@@ -16289,7 +16327,7 @@
         <v>419</v>
       </c>
       <c r="K256" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L256" s="19">
         <v>3</v>
@@ -16335,7 +16373,7 @@
         <v>68</v>
       </c>
       <c r="K257" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L257" s="19">
         <v>3</v>
@@ -16381,7 +16419,7 @@
         <v>422</v>
       </c>
       <c r="K258" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L258" s="19">
         <v>3</v>
@@ -16429,7 +16467,7 @@
         <v>424</v>
       </c>
       <c r="K259" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L259" s="19">
         <v>3</v>
@@ -16477,7 +16515,7 @@
         <v>426</v>
       </c>
       <c r="K260" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L260" s="19">
         <v>3</v>
@@ -16523,7 +16561,7 @@
         <v>428</v>
       </c>
       <c r="K261" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L261" s="19">
         <v>3</v>
@@ -16569,7 +16607,7 @@
         <v>81</v>
       </c>
       <c r="K262" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L262" s="19">
         <v>3</v>
@@ -16615,7 +16653,7 @@
         <v>151</v>
       </c>
       <c r="K263" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L263" s="19">
         <f t="shared" ref="L263:L287" si="12">IF(K263="Public",1,IF(K263="FOUO (CUI)",2,IF(K263="Sensitive (CUI)",3,IF(K263="System-Only",4))))</f>
@@ -16662,7 +16700,7 @@
         <v>40</v>
       </c>
       <c r="K264" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L264" s="19">
         <f t="shared" si="12"/>
@@ -16709,7 +16747,7 @@
         <v>154</v>
       </c>
       <c r="K265" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L265" s="19">
         <f t="shared" si="12"/>
@@ -16756,7 +16794,7 @@
         <v>156</v>
       </c>
       <c r="K266" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L266" s="19">
         <f t="shared" si="12"/>
@@ -16805,7 +16843,7 @@
         <v>171</v>
       </c>
       <c r="K267" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L267" s="19">
         <f t="shared" si="12"/>
@@ -16852,7 +16890,7 @@
         <v>173</v>
       </c>
       <c r="K268" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L268" s="19">
         <f t="shared" si="12"/>
@@ -16901,7 +16939,7 @@
         <v>176</v>
       </c>
       <c r="K269" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L269" s="19">
         <f t="shared" si="12"/>
@@ -16948,7 +16986,7 @@
         <v>178</v>
       </c>
       <c r="K270" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L270" s="19">
         <f t="shared" si="12"/>
@@ -16995,7 +17033,7 @@
         <v>180</v>
       </c>
       <c r="K271" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L271" s="19">
         <f t="shared" si="12"/>
@@ -17042,7 +17080,7 @@
         <v>151</v>
       </c>
       <c r="K272" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L272" s="19">
         <f t="shared" si="12"/>
@@ -17089,7 +17127,7 @@
         <v>40</v>
       </c>
       <c r="K273" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L273" s="19">
         <f t="shared" si="12"/>
@@ -17136,7 +17174,7 @@
         <v>154</v>
       </c>
       <c r="K274" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L274" s="19">
         <f t="shared" si="12"/>
@@ -17183,7 +17221,7 @@
         <v>156</v>
       </c>
       <c r="K275" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L275" s="19">
         <f t="shared" si="12"/>
@@ -17230,7 +17268,7 @@
         <v>158</v>
       </c>
       <c r="K276" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L276" s="19">
         <f t="shared" si="12"/>
@@ -17277,7 +17315,7 @@
         <v>160</v>
       </c>
       <c r="K277" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L277" s="19">
         <f t="shared" si="12"/>
@@ -17324,7 +17362,7 @@
         <v>162</v>
       </c>
       <c r="K278" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L278" s="19">
         <f t="shared" si="12"/>
@@ -17373,7 +17411,7 @@
         <v>164</v>
       </c>
       <c r="K279" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L279" s="19">
         <f t="shared" si="12"/>
@@ -17422,7 +17460,7 @@
         <v>166</v>
       </c>
       <c r="K280" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L280" s="19">
         <f t="shared" si="12"/>
@@ -17469,7 +17507,7 @@
         <v>81</v>
       </c>
       <c r="K281" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L281" s="19">
         <f t="shared" si="12"/>
@@ -17518,7 +17556,7 @@
         <v>169</v>
       </c>
       <c r="K282" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L282" s="19">
         <f t="shared" si="12"/>
@@ -17567,7 +17605,7 @@
         <v>171</v>
       </c>
       <c r="K283" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L283" s="19">
         <f t="shared" si="12"/>
@@ -17614,7 +17652,7 @@
         <v>173</v>
       </c>
       <c r="K284" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L284" s="19">
         <f t="shared" si="12"/>
@@ -17663,7 +17701,7 @@
         <v>176</v>
       </c>
       <c r="K285" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L285" s="19">
         <f t="shared" si="12"/>
@@ -17710,7 +17748,7 @@
         <v>178</v>
       </c>
       <c r="K286" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L286" s="19">
         <f t="shared" si="12"/>
@@ -17757,7 +17795,7 @@
         <v>180</v>
       </c>
       <c r="K287" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L287" s="19">
         <f t="shared" si="12"/>
@@ -17777,54 +17815,54 @@
       </c>
     </row>
     <row r="288" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A288" s="16" t="s">
+      <c r="A288" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="124">
+        <v>284</v>
+      </c>
+      <c r="C288" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E288" s="124">
+        <v>9</v>
+      </c>
+      <c r="F288" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="G288" s="19"/>
+      <c r="H288" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I288" s="126"/>
+      <c r="J288" s="127" t="s">
         <v>455</v>
       </c>
-      <c r="B288" s="17">
-        <v>284</v>
-      </c>
-      <c r="C288" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D288" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E288" s="17">
-        <v>9</v>
-      </c>
-      <c r="F288" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G288" s="19"/>
-      <c r="H288" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I288" s="20"/>
-      <c r="J288" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="K288" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="L288" s="19">
+      <c r="K288" s="123" t="s">
+        <v>924</v>
+      </c>
+      <c r="L288" s="127">
         <v>3</v>
       </c>
-      <c r="M288" s="21" t="str">
+      <c r="M288" s="128" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N288" s="21" t="str">
+      <c r="N288" s="128" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O288" s="34" t="str">
+      <c r="O288" s="129" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
     </row>
     <row r="289" spans="1:15" ht="29.25" customHeight="1">
       <c r="A289" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B289" s="17">
         <v>285</v>
@@ -17839,7 +17877,7 @@
         <v>4</v>
       </c>
       <c r="F289" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G289" s="19"/>
       <c r="H289" s="20" t="s">
@@ -17847,7 +17885,7 @@
       </c>
       <c r="I289" s="20"/>
       <c r="J289" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K289" s="16" t="s">
         <v>16</v>
@@ -17871,7 +17909,7 @@
     </row>
     <row r="290" spans="1:15" ht="55.5" customHeight="1">
       <c r="A290" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B290" s="17">
         <v>286</v>
@@ -17886,7 +17924,7 @@
         <v>1100</v>
       </c>
       <c r="F290" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>110</v>
@@ -17898,7 +17936,7 @@
         <v>111</v>
       </c>
       <c r="J290" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K290" s="16" t="s">
         <v>16</v>
@@ -17921,7 +17959,7 @@
     </row>
     <row r="291" spans="1:15" ht="14.25" customHeight="1">
       <c r="A291" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B291" s="17">
         <v>287</v>
@@ -17930,7 +17968,7 @@
         <v>18</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E291" s="17">
         <v>1</v>
@@ -17939,13 +17977,13 @@
         <v>27</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H291" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I291" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J291" s="19" t="s">
         <v>133</v>
@@ -17971,7 +18009,7 @@
     </row>
     <row r="292" spans="1:15" ht="74.25" customHeight="1">
       <c r="A292" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B292" s="17">
         <v>288</v>
@@ -17980,13 +18018,13 @@
         <v>18</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E292" s="17">
         <v>1</v>
       </c>
       <c r="F292" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G292" s="19"/>
       <c r="H292" s="20" t="s">
@@ -17994,7 +18032,7 @@
       </c>
       <c r="I292" s="20"/>
       <c r="J292" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K292" s="16" t="s">
         <v>16</v>
@@ -18017,7 +18055,7 @@
     </row>
     <row r="293" spans="1:15" ht="14.25" customHeight="1">
       <c r="A293" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B293" s="17">
         <v>289</v>
@@ -18032,7 +18070,7 @@
         <v>4</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G293" s="19"/>
       <c r="H293" s="20" t="s">
@@ -18064,7 +18102,7 @@
     </row>
     <row r="294" spans="1:15" ht="59.25" customHeight="1">
       <c r="A294" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B294" s="17">
         <v>290</v>
@@ -18079,7 +18117,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G294" s="19" t="s">
         <v>110</v>
@@ -18091,7 +18129,7 @@
         <v>111</v>
       </c>
       <c r="J294" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K294" s="16" t="s">
         <v>16</v>
@@ -18114,7 +18152,7 @@
     </row>
     <row r="295" spans="1:15" ht="30.75" customHeight="1">
       <c r="A295" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B295" s="17">
         <v>291</v>
@@ -18129,7 +18167,7 @@
         <v>4</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G295" s="19"/>
       <c r="H295" s="20" t="s">
@@ -18137,10 +18175,10 @@
       </c>
       <c r="I295" s="20"/>
       <c r="J295" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K295" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L295" s="19">
         <f>IF(K295="Public",1,IF(K295="FOUO (CUI)",2,IF(K295="Sensitive (CUI)",3,IF(K295="System-Only",4))))</f>
@@ -18161,7 +18199,7 @@
     </row>
     <row r="296" spans="1:15" ht="14.25" customHeight="1">
       <c r="A296" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B296" s="17">
         <v>292</v>
@@ -18176,7 +18214,7 @@
         <v>1600</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G296" s="19" t="s">
         <v>110</v>
@@ -18188,10 +18226,10 @@
         <v>111</v>
       </c>
       <c r="J296" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K296" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L296" s="19">
         <v>2</v>
@@ -18211,7 +18249,7 @@
     </row>
     <row r="297" spans="1:15" ht="14.25" customHeight="1">
       <c r="A297" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B297" s="17">
         <v>293</v>
@@ -18220,7 +18258,7 @@
         <v>18</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E297" s="17">
         <v>4</v>
@@ -18229,16 +18267,16 @@
         <v>27</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H297" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I297" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="J297" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="J297" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="K297" s="16" t="s">
         <v>16</v>
@@ -18261,7 +18299,7 @@
     </row>
     <row r="298" spans="1:15" ht="14.25" customHeight="1">
       <c r="A298" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B298" s="17">
         <v>294</v>
@@ -18276,7 +18314,7 @@
         <v>4</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G298" s="19"/>
       <c r="H298" s="20" t="s">
@@ -18284,7 +18322,7 @@
       </c>
       <c r="I298" s="20"/>
       <c r="J298" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K298" s="16" t="s">
         <v>16</v>
@@ -18308,7 +18346,7 @@
     </row>
     <row r="299" spans="1:15" ht="14.25" customHeight="1">
       <c r="A299" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B299" s="17">
         <v>295</v>
@@ -18323,7 +18361,7 @@
         <v>75</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G299" s="19" t="s">
         <v>110</v>
@@ -18335,7 +18373,7 @@
         <v>111</v>
       </c>
       <c r="J299" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K299" s="16" t="s">
         <v>16</v>
@@ -18358,7 +18396,7 @@
     </row>
     <row r="300" spans="1:15" ht="14.25" customHeight="1">
       <c r="A300" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B300" s="17">
         <v>296</v>
@@ -18373,7 +18411,7 @@
         <v>25</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G300" s="19"/>
       <c r="H300" s="20" t="s">
@@ -18384,7 +18422,7 @@
         <v>376916</v>
       </c>
       <c r="K300" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L300" s="19">
         <v>2</v>
@@ -18404,7 +18442,7 @@
     </row>
     <row r="301" spans="1:15" ht="14.25" customHeight="1">
       <c r="A301" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B301" s="17">
         <v>297</v>
@@ -18430,7 +18468,7 @@
         <v>5749</v>
       </c>
       <c r="K301" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L301" s="19">
         <v>3</v>
@@ -18450,7 +18488,7 @@
     </row>
     <row r="302" spans="1:15" ht="14.25" customHeight="1">
       <c r="A302" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B302" s="17">
         <v>298</v>
@@ -18473,10 +18511,10 @@
       </c>
       <c r="I302" s="20"/>
       <c r="J302" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K302" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L302" s="19">
         <v>3</v>
@@ -18496,7 +18534,7 @@
     </row>
     <row r="303" spans="1:15" ht="14.25" customHeight="1">
       <c r="A303" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B303" s="17">
         <v>299</v>
@@ -18522,7 +18560,7 @@
         <v>38100080001</v>
       </c>
       <c r="K303" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L303" s="19">
         <v>3</v>
@@ -18542,7 +18580,7 @@
     </row>
     <row r="304" spans="1:15" ht="14.25" customHeight="1">
       <c r="A304" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B304" s="17">
         <v>300</v>
@@ -18568,7 +18606,7 @@
         <v>32323720011</v>
       </c>
       <c r="K304" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L304" s="19">
         <v>3</v>
@@ -18588,7 +18626,7 @@
     </row>
     <row r="305" spans="1:15" ht="14.25" customHeight="1">
       <c r="A305" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B305" s="17">
         <v>301</v>
@@ -18614,7 +18652,7 @@
         <v>111111</v>
       </c>
       <c r="K305" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L305" s="19">
         <v>3</v>
@@ -18634,7 +18672,7 @@
     </row>
     <row r="306" spans="1:15" ht="14.25" customHeight="1">
       <c r="A306" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B306" s="17">
         <v>302</v>
@@ -18649,22 +18687,22 @@
         <v>7</v>
       </c>
       <c r="F306" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="G306" s="20" t="s">
         <v>501</v>
-      </c>
-      <c r="G306" s="20" t="s">
-        <v>502</v>
       </c>
       <c r="H306" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I306" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="J306" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="J306" s="19" t="s">
-        <v>504</v>
-      </c>
       <c r="K306" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L306" s="19">
         <v>2</v>
@@ -18684,7 +18722,7 @@
     </row>
     <row r="307" spans="1:15" ht="14.25" customHeight="1">
       <c r="A307" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B307" s="17">
         <v>303</v>
@@ -18699,7 +18737,7 @@
         <v>2</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G307" s="19"/>
       <c r="H307" s="20" t="s">
@@ -18710,7 +18748,7 @@
         <v>57</v>
       </c>
       <c r="K307" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L307" s="19">
         <v>2</v>
@@ -18730,7 +18768,7 @@
     </row>
     <row r="308" spans="1:15" ht="14.25" customHeight="1">
       <c r="A308" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B308" s="17">
         <v>304</v>
@@ -18745,20 +18783,20 @@
         <v>4</v>
       </c>
       <c r="F308" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G308" s="19"/>
       <c r="H308" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J308" s="19">
         <v>9700</v>
       </c>
       <c r="K308" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L308" s="19">
         <v>2</v>
@@ -18778,7 +18816,7 @@
     </row>
     <row r="309" spans="1:15" ht="14.25" customHeight="1">
       <c r="A309" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B309" s="17">
         <v>305</v>
@@ -18793,20 +18831,20 @@
         <v>150</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G309" s="19"/>
       <c r="H309" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J309" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K309" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L309" s="19">
         <v>2</v>
@@ -18826,7 +18864,7 @@
     </row>
     <row r="310" spans="1:15" ht="14.25" customHeight="1">
       <c r="A310" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B310" s="17">
         <v>306</v>
@@ -18841,20 +18879,20 @@
         <v>4</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G310" s="19"/>
       <c r="H310" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J310" s="19">
         <v>2100</v>
       </c>
       <c r="K310" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L310" s="19">
         <v>2</v>
@@ -18874,7 +18912,7 @@
     </row>
     <row r="311" spans="1:15" ht="14.25" customHeight="1">
       <c r="A311" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B311" s="17">
         <v>307</v>
@@ -18889,20 +18927,20 @@
         <v>150</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G311" s="19"/>
       <c r="H311" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J311" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K311" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L311" s="19">
         <v>2</v>
@@ -18922,7 +18960,7 @@
     </row>
     <row r="312" spans="1:15" ht="99.75" customHeight="1">
       <c r="A312" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B312" s="17">
         <v>308</v>
@@ -18937,20 +18975,20 @@
         <v>6</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G312" s="19"/>
       <c r="H312" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I312" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J312" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K312" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L312" s="19">
         <v>2</v>
@@ -18970,7 +19008,7 @@
     </row>
     <row r="313" spans="1:15" ht="14.25" customHeight="1">
       <c r="A313" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B313" s="17">
         <v>309</v>
@@ -18996,7 +19034,7 @@
         <v>151</v>
       </c>
       <c r="K313" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L313" s="19">
         <f t="shared" ref="L313:L344" si="13">IF(K313="Public",1,IF(K313="FOUO (CUI)",2,IF(K313="Sensitive (CUI)",3,IF(K313="System-Only",4))))</f>
@@ -19017,7 +19055,7 @@
     </row>
     <row r="314" spans="1:15" ht="14.25" customHeight="1">
       <c r="A314" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B314" s="17">
         <v>310</v>
@@ -19043,7 +19081,7 @@
         <v>40</v>
       </c>
       <c r="K314" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L314" s="19">
         <f t="shared" si="13"/>
@@ -19064,7 +19102,7 @@
     </row>
     <row r="315" spans="1:15" ht="14.25" customHeight="1">
       <c r="A315" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B315" s="17">
         <v>311</v>
@@ -19090,7 +19128,7 @@
         <v>154</v>
       </c>
       <c r="K315" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L315" s="19">
         <f t="shared" si="13"/>
@@ -19111,7 +19149,7 @@
     </row>
     <row r="316" spans="1:15" ht="14.25" customHeight="1">
       <c r="A316" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B316" s="17">
         <v>312</v>
@@ -19137,7 +19175,7 @@
         <v>156</v>
       </c>
       <c r="K316" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L316" s="19">
         <f t="shared" si="13"/>
@@ -19158,7 +19196,7 @@
     </row>
     <row r="317" spans="1:15" ht="14.25" customHeight="1">
       <c r="A317" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B317" s="17">
         <v>313</v>
@@ -19184,7 +19222,7 @@
         <v>158</v>
       </c>
       <c r="K317" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L317" s="19">
         <f t="shared" si="13"/>
@@ -19205,7 +19243,7 @@
     </row>
     <row r="318" spans="1:15" ht="14.25" customHeight="1">
       <c r="A318" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B318" s="17">
         <v>314</v>
@@ -19231,7 +19269,7 @@
         <v>160</v>
       </c>
       <c r="K318" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L318" s="19">
         <f t="shared" si="13"/>
@@ -19252,7 +19290,7 @@
     </row>
     <row r="319" spans="1:15" ht="14.25" customHeight="1">
       <c r="A319" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B319" s="17">
         <v>315</v>
@@ -19278,7 +19316,7 @@
         <v>162</v>
       </c>
       <c r="K319" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L319" s="19">
         <f t="shared" si="13"/>
@@ -19299,7 +19337,7 @@
     </row>
     <row r="320" spans="1:15" ht="14.25" customHeight="1">
       <c r="A320" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B320" s="17">
         <v>316</v>
@@ -19327,7 +19365,7 @@
         <v>164</v>
       </c>
       <c r="K320" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L320" s="19">
         <f t="shared" si="13"/>
@@ -19348,7 +19386,7 @@
     </row>
     <row r="321" spans="1:15" ht="14.25" customHeight="1">
       <c r="A321" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B321" s="17">
         <v>317</v>
@@ -19374,7 +19412,7 @@
         <v>166</v>
       </c>
       <c r="K321" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L321" s="19">
         <f t="shared" si="13"/>
@@ -19395,7 +19433,7 @@
     </row>
     <row r="322" spans="1:15" ht="14.25" customHeight="1">
       <c r="A322" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B322" s="17">
         <v>318</v>
@@ -19421,7 +19459,7 @@
         <v>81</v>
       </c>
       <c r="K322" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L322" s="19">
         <f t="shared" si="13"/>
@@ -19442,7 +19480,7 @@
     </row>
     <row r="323" spans="1:15" ht="14.25" customHeight="1">
       <c r="A323" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B323" s="17">
         <v>319</v>
@@ -19470,7 +19508,7 @@
         <v>169</v>
       </c>
       <c r="K323" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L323" s="19">
         <f t="shared" si="13"/>
@@ -19491,7 +19529,7 @@
     </row>
     <row r="324" spans="1:15" ht="14.25" customHeight="1">
       <c r="A324" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B324" s="17">
         <v>320</v>
@@ -19519,7 +19557,7 @@
         <v>171</v>
       </c>
       <c r="K324" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L324" s="19">
         <f t="shared" si="13"/>
@@ -19540,7 +19578,7 @@
     </row>
     <row r="325" spans="1:15" ht="14.25" customHeight="1">
       <c r="A325" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B325" s="17">
         <v>321</v>
@@ -19566,7 +19604,7 @@
         <v>173</v>
       </c>
       <c r="K325" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L325" s="19">
         <f t="shared" si="13"/>
@@ -19587,7 +19625,7 @@
     </row>
     <row r="326" spans="1:15" ht="14.25" customHeight="1">
       <c r="A326" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B326" s="17">
         <v>322</v>
@@ -19615,7 +19653,7 @@
         <v>176</v>
       </c>
       <c r="K326" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L326" s="19">
         <f t="shared" si="13"/>
@@ -19636,7 +19674,7 @@
     </row>
     <row r="327" spans="1:15" ht="14.25" customHeight="1">
       <c r="A327" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B327" s="17">
         <v>323</v>
@@ -19662,7 +19700,7 @@
         <v>178</v>
       </c>
       <c r="K327" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L327" s="19">
         <f t="shared" si="13"/>
@@ -19683,7 +19721,7 @@
     </row>
     <row r="328" spans="1:15" ht="14.25" customHeight="1">
       <c r="A328" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B328" s="17">
         <v>324</v>
@@ -19709,7 +19747,7 @@
         <v>180</v>
       </c>
       <c r="K328" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L328" s="19">
         <f t="shared" si="13"/>
@@ -19730,7 +19768,7 @@
     </row>
     <row r="329" spans="1:15" ht="14.25" customHeight="1">
       <c r="A329" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B329" s="17">
         <v>325</v>
@@ -19756,7 +19794,7 @@
         <v>151</v>
       </c>
       <c r="K329" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L329" s="19">
         <f t="shared" si="13"/>
@@ -19777,7 +19815,7 @@
     </row>
     <row r="330" spans="1:15" ht="14.25" customHeight="1">
       <c r="A330" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B330" s="17">
         <v>326</v>
@@ -19803,7 +19841,7 @@
         <v>40</v>
       </c>
       <c r="K330" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L330" s="19">
         <f t="shared" si="13"/>
@@ -19824,7 +19862,7 @@
     </row>
     <row r="331" spans="1:15" ht="14.25" customHeight="1">
       <c r="A331" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B331" s="17">
         <v>327</v>
@@ -19850,7 +19888,7 @@
         <v>154</v>
       </c>
       <c r="K331" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L331" s="19">
         <f t="shared" si="13"/>
@@ -19871,7 +19909,7 @@
     </row>
     <row r="332" spans="1:15" ht="14.25" customHeight="1">
       <c r="A332" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B332" s="17">
         <v>328</v>
@@ -19897,7 +19935,7 @@
         <v>156</v>
       </c>
       <c r="K332" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L332" s="19">
         <f t="shared" si="13"/>
@@ -19918,7 +19956,7 @@
     </row>
     <row r="333" spans="1:15" ht="14.25" customHeight="1">
       <c r="A333" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B333" s="17">
         <v>329</v>
@@ -19944,7 +19982,7 @@
         <v>158</v>
       </c>
       <c r="K333" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L333" s="19">
         <f t="shared" si="13"/>
@@ -19965,7 +20003,7 @@
     </row>
     <row r="334" spans="1:15" ht="14.25" customHeight="1">
       <c r="A334" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B334" s="17">
         <v>330</v>
@@ -19991,7 +20029,7 @@
         <v>160</v>
       </c>
       <c r="K334" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L334" s="19">
         <f t="shared" si="13"/>
@@ -20012,7 +20050,7 @@
     </row>
     <row r="335" spans="1:15" ht="14.25" customHeight="1">
       <c r="A335" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B335" s="17">
         <v>331</v>
@@ -20038,7 +20076,7 @@
         <v>162</v>
       </c>
       <c r="K335" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L335" s="19">
         <f t="shared" si="13"/>
@@ -20059,7 +20097,7 @@
     </row>
     <row r="336" spans="1:15" ht="14.25" customHeight="1">
       <c r="A336" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B336" s="17">
         <v>332</v>
@@ -20087,7 +20125,7 @@
         <v>164</v>
       </c>
       <c r="K336" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L336" s="19">
         <f t="shared" si="13"/>
@@ -20108,7 +20146,7 @@
     </row>
     <row r="337" spans="1:15" ht="14.25" customHeight="1">
       <c r="A337" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B337" s="17">
         <v>333</v>
@@ -20134,7 +20172,7 @@
         <v>166</v>
       </c>
       <c r="K337" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L337" s="19">
         <f t="shared" si="13"/>
@@ -20155,7 +20193,7 @@
     </row>
     <row r="338" spans="1:15" ht="14.25" customHeight="1">
       <c r="A338" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B338" s="17">
         <v>334</v>
@@ -20181,7 +20219,7 @@
         <v>81</v>
       </c>
       <c r="K338" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L338" s="19">
         <f t="shared" si="13"/>
@@ -20202,7 +20240,7 @@
     </row>
     <row r="339" spans="1:15" ht="14.25" customHeight="1">
       <c r="A339" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B339" s="17">
         <v>335</v>
@@ -20230,7 +20268,7 @@
         <v>169</v>
       </c>
       <c r="K339" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L339" s="19">
         <f t="shared" si="13"/>
@@ -20251,7 +20289,7 @@
     </row>
     <row r="340" spans="1:15" ht="14.25" customHeight="1">
       <c r="A340" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B340" s="17">
         <v>336</v>
@@ -20279,7 +20317,7 @@
         <v>171</v>
       </c>
       <c r="K340" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L340" s="19">
         <f t="shared" si="13"/>
@@ -20300,7 +20338,7 @@
     </row>
     <row r="341" spans="1:15" ht="14.25" customHeight="1">
       <c r="A341" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B341" s="17">
         <v>337</v>
@@ -20326,7 +20364,7 @@
         <v>173</v>
       </c>
       <c r="K341" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L341" s="19">
         <f t="shared" si="13"/>
@@ -20347,7 +20385,7 @@
     </row>
     <row r="342" spans="1:15" ht="14.25" customHeight="1">
       <c r="A342" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B342" s="17">
         <v>338</v>
@@ -20375,7 +20413,7 @@
         <v>176</v>
       </c>
       <c r="K342" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L342" s="19">
         <f t="shared" si="13"/>
@@ -20396,7 +20434,7 @@
     </row>
     <row r="343" spans="1:15" ht="14.25" customHeight="1">
       <c r="A343" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B343" s="17">
         <v>339</v>
@@ -20422,7 +20460,7 @@
         <v>178</v>
       </c>
       <c r="K343" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L343" s="19">
         <f t="shared" si="13"/>
@@ -20443,7 +20481,7 @@
     </row>
     <row r="344" spans="1:15" ht="14.25" customHeight="1">
       <c r="A344" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B344" s="17">
         <v>340</v>
@@ -20469,7 +20507,7 @@
         <v>180</v>
       </c>
       <c r="K344" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L344" s="19">
         <f t="shared" si="13"/>
@@ -20490,7 +20528,7 @@
     </row>
     <row r="345" spans="1:15" ht="14.25" customHeight="1">
       <c r="A345" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B345" s="17">
         <v>341</v>
@@ -20513,13 +20551,13 @@
       </c>
       <c r="I345" s="42"/>
       <c r="J345" s="41" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K345" s="43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L345" s="41">
-        <f t="shared" ref="L345:L376" si="14">IF(K345="Public",1,IF(K345="FOUO (CUI)",2,IF(K345="Sensitive (CUI)",3,IF(K345="System-Only",4))))</f>
+        <f t="shared" ref="L345:L365" si="14">IF(K345="Public",1,IF(K345="FOUO (CUI)",2,IF(K345="Sensitive (CUI)",3,IF(K345="System-Only",4))))</f>
         <v>3</v>
       </c>
       <c r="M345" s="44" t="str">
@@ -20537,7 +20575,7 @@
     </row>
     <row r="346" spans="1:15" ht="14.25" customHeight="1">
       <c r="A346" s="43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B346" s="17">
         <v>342</v>
@@ -20552,7 +20590,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G346" s="41"/>
       <c r="H346" s="42" t="s">
@@ -20560,7 +20598,7 @@
       </c>
       <c r="I346" s="42"/>
       <c r="J346" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K346" s="43" t="s">
         <v>16</v>
@@ -20584,7 +20622,7 @@
     </row>
     <row r="347" spans="1:15" ht="14.25" customHeight="1">
       <c r="A347" s="43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B347" s="17">
         <v>343</v>
@@ -20599,7 +20637,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G347" s="41"/>
       <c r="H347" s="42" t="s">
@@ -20609,10 +20647,10 @@
         <v>309</v>
       </c>
       <c r="J347" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K347" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L347" s="41">
         <f t="shared" si="14"/>
@@ -20633,7 +20671,7 @@
     </row>
     <row r="348" spans="1:15" ht="14.25" customHeight="1">
       <c r="A348" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B348" s="17">
         <v>344</v>
@@ -20648,7 +20686,7 @@
         <v>10</v>
       </c>
       <c r="F348" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G348" s="41"/>
       <c r="H348" s="42" t="s">
@@ -20658,10 +20696,10 @@
         <v>322</v>
       </c>
       <c r="J348" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K348" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L348" s="41">
         <f t="shared" si="14"/>
@@ -20682,7 +20720,7 @@
     </row>
     <row r="349" spans="1:15" ht="14.25" customHeight="1">
       <c r="A349" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B349" s="17">
         <v>345</v>
@@ -20697,7 +20735,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G349" s="41"/>
       <c r="H349" s="42" t="s">
@@ -20707,10 +20745,10 @@
         <v>334</v>
       </c>
       <c r="J349" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K349" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L349" s="41">
         <f t="shared" si="14"/>
@@ -20731,7 +20769,7 @@
     </row>
     <row r="350" spans="1:15" ht="14.25" customHeight="1">
       <c r="A350" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B350" s="17">
         <v>346</v>
@@ -20746,7 +20784,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G350" s="41"/>
       <c r="H350" s="42" t="s">
@@ -20754,10 +20792,10 @@
       </c>
       <c r="I350" s="42"/>
       <c r="J350" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K350" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L350" s="41">
         <f t="shared" si="14"/>
@@ -20778,7 +20816,7 @@
     </row>
     <row r="351" spans="1:15" ht="14.25" customHeight="1">
       <c r="A351" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B351" s="17">
         <v>347</v>
@@ -20793,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="F351" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G351" s="41"/>
       <c r="H351" s="42" t="s">
@@ -20823,7 +20861,7 @@
     </row>
     <row r="352" spans="1:15" ht="14.25" customHeight="1">
       <c r="A352" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B352" s="17">
         <v>348</v>
@@ -20838,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="F352" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G352" s="41"/>
       <c r="H352" s="42" t="s">
@@ -20868,7 +20906,7 @@
     </row>
     <row r="353" spans="1:15" ht="14.25" customHeight="1">
       <c r="A353" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B353" s="17">
         <v>349</v>
@@ -20883,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="F353" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G353" s="41"/>
       <c r="H353" s="42" t="s">
@@ -20913,7 +20951,7 @@
     </row>
     <row r="354" spans="1:15" ht="14.25" customHeight="1">
       <c r="A354" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B354" s="17">
         <v>350</v>
@@ -20928,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G354" s="41"/>
       <c r="H354" s="42" t="s">
@@ -20958,7 +20996,7 @@
     </row>
     <row r="355" spans="1:15" ht="14.25" customHeight="1">
       <c r="A355" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B355" s="17">
         <v>351</v>
@@ -20973,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="F355" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G355" s="41"/>
       <c r="H355" s="42" t="s">
@@ -21003,7 +21041,7 @@
     </row>
     <row r="356" spans="1:15" ht="14.25" customHeight="1">
       <c r="A356" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B356" s="17">
         <v>352</v>
@@ -21018,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="F356" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G356" s="41"/>
       <c r="H356" s="42" t="s">
@@ -21048,7 +21086,7 @@
     </row>
     <row r="357" spans="1:15" ht="14.25" customHeight="1">
       <c r="A357" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B357" s="17">
         <v>353</v>
@@ -21063,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="F357" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G357" s="41"/>
       <c r="H357" s="42" t="s">
@@ -21093,7 +21131,7 @@
     </row>
     <row r="358" spans="1:15" ht="14.25" customHeight="1">
       <c r="A358" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B358" s="17">
         <v>354</v>
@@ -21108,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="F358" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G358" s="41"/>
       <c r="H358" s="42" t="s">
@@ -21138,7 +21176,7 @@
     </row>
     <row r="359" spans="1:15" ht="14.25" customHeight="1">
       <c r="A359" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B359" s="17">
         <v>355</v>
@@ -21153,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="F359" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G359" s="41"/>
       <c r="H359" s="42" t="s">
@@ -21183,7 +21221,7 @@
     </row>
     <row r="360" spans="1:15" ht="14.25" customHeight="1">
       <c r="A360" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B360" s="17">
         <v>356</v>
@@ -21198,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="F360" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G360" s="41"/>
       <c r="H360" s="42" t="s">
@@ -21228,7 +21266,7 @@
     </row>
     <row r="361" spans="1:15" ht="14.25" customHeight="1">
       <c r="A361" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B361" s="17">
         <v>357</v>
@@ -21243,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="F361" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G361" s="41"/>
       <c r="H361" s="42" t="s">
@@ -21273,7 +21311,7 @@
     </row>
     <row r="362" spans="1:15" ht="14.25" customHeight="1">
       <c r="A362" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B362" s="17">
         <v>358</v>
@@ -21288,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="F362" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G362" s="41"/>
       <c r="H362" s="42" t="s">
@@ -21318,7 +21356,7 @@
     </row>
     <row r="363" spans="1:15" ht="14.25" customHeight="1">
       <c r="A363" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B363" s="17">
         <v>359</v>
@@ -21333,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="F363" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G363" s="41"/>
       <c r="H363" s="42" t="s">
@@ -21363,7 +21401,7 @@
     </row>
     <row r="364" spans="1:15" ht="14.25" customHeight="1">
       <c r="A364" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B364" s="17">
         <v>360</v>
@@ -21378,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="F364" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G364" s="41"/>
       <c r="H364" s="42" t="s">
@@ -21408,7 +21446,7 @@
     </row>
     <row r="365" spans="1:15" ht="14.25" customHeight="1">
       <c r="A365" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B365" s="17">
         <v>361</v>
@@ -21423,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="F365" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G365" s="41"/>
       <c r="H365" s="42" t="s">
@@ -21453,7 +21491,7 @@
     </row>
     <row r="366" spans="1:15" ht="14.25" customHeight="1">
       <c r="A366" s="55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B366" s="56">
         <v>362</v>
@@ -21468,7 +21506,7 @@
         <v>4</v>
       </c>
       <c r="F366" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G366" s="58"/>
       <c r="H366" s="59" t="s">
@@ -21476,7 +21514,7 @@
       </c>
       <c r="I366" s="59"/>
       <c r="J366" s="60" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K366" s="55" t="s">
         <v>16</v>
@@ -21500,7 +21538,7 @@
     <row r="367" spans="1:15" ht="14.25" customHeight="1"/>
     <row r="368" spans="1:15" ht="14.25" customHeight="1">
       <c r="A368" s="63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="369" ht="14.25" customHeight="1"/>
@@ -22153,7 +22191,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -22178,17 +22216,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="82.42578125" customWidth="1"/>
-    <col min="9" max="26" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="3" max="3" width="19.578125" customWidth="1"/>
+    <col min="4" max="4" width="46.41796875" customWidth="1"/>
+    <col min="5" max="5" width="18.41796875" customWidth="1"/>
+    <col min="6" max="6" width="17.41796875" customWidth="1"/>
+    <col min="7" max="7" width="9.15625" customWidth="1"/>
+    <col min="8" max="8" width="82.41796875" customWidth="1"/>
+    <col min="9" max="26" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
@@ -22222,7 +22260,7 @@
     <row r="2" spans="1:26" ht="12" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -22280,17 +22318,17 @@
     <row r="4" spans="1:26" ht="12" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="65" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="D4" s="67" t="s">
         <v>585</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>586</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -22316,15 +22354,15 @@
     <row r="5" spans="1:26" ht="12" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="141" t="s">
         <v>588</v>
       </c>
-      <c r="C5" s="134" t="s">
-        <v>589</v>
-      </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -22350,13 +22388,13 @@
     <row r="6" spans="1:26" ht="12" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C6" s="70">
         <v>1</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -22384,13 +22422,13 @@
     <row r="7" spans="1:26" ht="12" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C7" s="70">
         <v>2</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -22418,17 +22456,17 @@
     <row r="8" spans="1:26" ht="12" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" s="70">
         <v>3</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -22454,13 +22492,13 @@
     <row r="9" spans="1:26" ht="12" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C9" s="70">
         <v>4</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -22488,15 +22526,15 @@
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="69" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="143" t="s">
         <v>595</v>
       </c>
-      <c r="C10" s="136" t="s">
-        <v>596</v>
-      </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -22522,13 +22560,13 @@
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" s="70">
         <v>1</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -22556,17 +22594,17 @@
     <row r="12" spans="1:26" ht="12" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" s="70">
         <v>2</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -22592,13 +22630,13 @@
     <row r="13" spans="1:26" ht="12" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C13" s="70">
         <v>3</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -22626,17 +22664,17 @@
     <row r="14" spans="1:26" ht="12" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C14" s="70">
         <v>4</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -22662,12 +22700,12 @@
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="69" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" s="143" t="s">
         <v>601</v>
       </c>
-      <c r="C15" s="136" t="s">
-        <v>602</v>
-      </c>
-      <c r="D15" s="137"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -22694,17 +22732,17 @@
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C16" s="70">
         <v>1</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -22730,17 +22768,17 @@
     <row r="17" spans="1:26" ht="12" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C17" s="70">
         <v>2</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -22766,17 +22804,17 @@
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C18" s="70">
         <v>3</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -22802,17 +22840,17 @@
     <row r="19" spans="1:26" ht="12" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C19" s="70">
         <v>4</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -22838,15 +22876,15 @@
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="69" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="143" t="s">
         <v>608</v>
       </c>
-      <c r="C20" s="136" t="s">
-        <v>609</v>
-      </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -22872,13 +22910,13 @@
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C21" s="70">
         <v>1</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -22906,13 +22944,13 @@
     <row r="22" spans="1:26" ht="12" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C22" s="70">
         <v>2</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -22940,17 +22978,17 @@
     <row r="23" spans="1:26" ht="12" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C23" s="70">
         <v>3</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -22976,17 +23014,17 @@
     <row r="24" spans="1:26" ht="12" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C24" s="70">
         <v>4</v>
       </c>
       <c r="D24" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -23012,15 +23050,15 @@
     <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="69" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="143" t="s">
         <v>614</v>
       </c>
-      <c r="C25" s="136" t="s">
-        <v>615</v>
-      </c>
-      <c r="D25" s="137"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -23046,17 +23084,17 @@
     <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C26" s="70">
         <v>1</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -23082,13 +23120,13 @@
     <row r="27" spans="1:26" ht="12" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C27" s="70">
         <v>2</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -23116,13 +23154,13 @@
     <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C28" s="70">
         <v>3</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -23150,13 +23188,13 @@
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C29" s="73">
         <v>4</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -23268,7 +23306,7 @@
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -23326,14 +23364,14 @@
     <row r="35" spans="1:26" ht="12" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>623</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>624</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -23360,14 +23398,14 @@
     <row r="36" spans="1:26" ht="12" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="77" t="s">
+        <v>625</v>
+      </c>
+      <c r="C36" s="78" t="s">
         <v>626</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>627</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -23394,10 +23432,10 @@
     <row r="37" spans="1:26" ht="12" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="79" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" s="80" t="s">
         <v>629</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>630</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -23426,10 +23464,10 @@
     <row r="38" spans="1:26" ht="12" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="79" t="s">
+        <v>630</v>
+      </c>
+      <c r="C38" s="80" t="s">
         <v>631</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>632</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23458,14 +23496,14 @@
     <row r="39" spans="1:26" ht="12" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="81" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>633</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>634</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -23495,7 +23533,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -23525,7 +23563,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -23555,7 +23593,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -23669,7 +23707,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -23727,7 +23765,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -23785,7 +23823,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -23815,7 +23853,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -23873,7 +23911,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -23903,7 +23941,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -23933,7 +23971,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -23963,7 +24001,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -23993,7 +24031,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -24023,7 +24061,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -24053,7 +24091,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -24083,7 +24121,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -24113,7 +24151,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -24143,7 +24181,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -24170,7 +24208,7 @@
     <row r="63" spans="1:26" ht="12" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="64" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -24228,10 +24266,10 @@
     <row r="65" spans="1:26" ht="12" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="C65" s="84" t="s">
         <v>653</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>654</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -24260,10 +24298,10 @@
     <row r="66" spans="1:26" ht="12" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="68" t="s">
+        <v>654</v>
+      </c>
+      <c r="C66" s="85" t="s">
         <v>655</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>656</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -24292,14 +24330,14 @@
     <row r="67" spans="1:26" ht="12" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="69" t="s">
+        <v>656</v>
+      </c>
+      <c r="C67" s="71" t="s">
         <v>657</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>658</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -24326,10 +24364,10 @@
     <row r="68" spans="1:26" ht="12" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="69" t="s">
+        <v>658</v>
+      </c>
+      <c r="C68" s="71" t="s">
         <v>659</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>660</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -24358,14 +24396,14 @@
     <row r="69" spans="1:26" ht="12" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="69" t="s">
+        <v>660</v>
+      </c>
+      <c r="C69" s="71" t="s">
         <v>661</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>662</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -24392,10 +24430,10 @@
     <row r="70" spans="1:26" ht="12" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="69" t="s">
+        <v>663</v>
+      </c>
+      <c r="C70" s="71" t="s">
         <v>664</v>
-      </c>
-      <c r="C70" s="71" t="s">
-        <v>665</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -24424,14 +24462,14 @@
     <row r="71" spans="1:26" ht="12" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="69" t="s">
+        <v>665</v>
+      </c>
+      <c r="C71" s="71" t="s">
         <v>666</v>
-      </c>
-      <c r="C71" s="71" t="s">
-        <v>667</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -24458,10 +24496,10 @@
     <row r="72" spans="1:26" ht="12" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="69" t="s">
+        <v>668</v>
+      </c>
+      <c r="C72" s="71" t="s">
         <v>669</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>670</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -24490,10 +24528,10 @@
     <row r="73" spans="1:26" ht="12" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="C73" s="71" t="s">
         <v>671</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>672</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -24522,10 +24560,10 @@
     <row r="74" spans="1:26" ht="12" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="69" t="s">
+        <v>672</v>
+      </c>
+      <c r="C74" s="71" t="s">
         <v>673</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>674</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -24554,10 +24592,10 @@
     <row r="75" spans="1:26" ht="12" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="69" t="s">
+        <v>674</v>
+      </c>
+      <c r="C75" s="71" t="s">
         <v>675</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>676</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -24586,10 +24624,10 @@
     <row r="76" spans="1:26" ht="12" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="C76" s="71" t="s">
         <v>677</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>678</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -24618,10 +24656,10 @@
     <row r="77" spans="1:26" ht="12" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="69" t="s">
+        <v>678</v>
+      </c>
+      <c r="C77" s="71" t="s">
         <v>679</v>
-      </c>
-      <c r="C77" s="71" t="s">
-        <v>680</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -24650,10 +24688,10 @@
     <row r="78" spans="1:26" ht="12" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="69" t="s">
+        <v>680</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>681</v>
-      </c>
-      <c r="C78" s="71" t="s">
-        <v>682</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -24682,10 +24720,10 @@
     <row r="79" spans="1:26" ht="12" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>683</v>
-      </c>
-      <c r="C79" s="71" t="s">
-        <v>684</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -24714,10 +24752,10 @@
     <row r="80" spans="1:26" ht="12" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>685</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>686</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -24746,10 +24784,10 @@
     <row r="81" spans="1:26" ht="12" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="69" t="s">
+        <v>686</v>
+      </c>
+      <c r="C81" s="71" t="s">
         <v>687</v>
-      </c>
-      <c r="C81" s="71" t="s">
-        <v>688</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -24778,10 +24816,10 @@
     <row r="82" spans="1:26" ht="12" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="C82" s="71" t="s">
         <v>689</v>
-      </c>
-      <c r="C82" s="71" t="s">
-        <v>690</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -24810,10 +24848,10 @@
     <row r="83" spans="1:26" ht="12" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="69" t="s">
+        <v>690</v>
+      </c>
+      <c r="C83" s="71" t="s">
         <v>691</v>
-      </c>
-      <c r="C83" s="71" t="s">
-        <v>692</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -24842,10 +24880,10 @@
     <row r="84" spans="1:26" ht="12" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="69" t="s">
+        <v>692</v>
+      </c>
+      <c r="C84" s="71" t="s">
         <v>693</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>694</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -24874,10 +24912,10 @@
     <row r="85" spans="1:26" ht="12" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="69" t="s">
+        <v>694</v>
+      </c>
+      <c r="C85" s="71" t="s">
         <v>695</v>
-      </c>
-      <c r="C85" s="71" t="s">
-        <v>696</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -24906,10 +24944,10 @@
     <row r="86" spans="1:26" ht="12" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="69" t="s">
+        <v>696</v>
+      </c>
+      <c r="C86" s="71" t="s">
         <v>697</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>698</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -24938,10 +24976,10 @@
     <row r="87" spans="1:26" ht="12" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="69" t="s">
+        <v>698</v>
+      </c>
+      <c r="C87" s="71" t="s">
         <v>699</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>700</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -24970,10 +25008,10 @@
     <row r="88" spans="1:26" ht="12" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="C88" s="71" t="s">
         <v>701</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>702</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -25002,10 +25040,10 @@
     <row r="89" spans="1:26" ht="12" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="69" t="s">
+        <v>702</v>
+      </c>
+      <c r="C89" s="71" t="s">
         <v>703</v>
-      </c>
-      <c r="C89" s="71" t="s">
-        <v>704</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -25034,10 +25072,10 @@
     <row r="90" spans="1:26" ht="12" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="69" t="s">
+        <v>704</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>705</v>
-      </c>
-      <c r="C90" s="71" t="s">
-        <v>706</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -25066,10 +25104,10 @@
     <row r="91" spans="1:26" ht="12" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>707</v>
-      </c>
-      <c r="C91" s="71" t="s">
-        <v>708</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -25098,10 +25136,10 @@
     <row r="92" spans="1:26" ht="12" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>709</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>710</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -25130,10 +25168,10 @@
     <row r="93" spans="1:26" ht="12" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="C93" s="71" t="s">
         <v>711</v>
-      </c>
-      <c r="C93" s="71" t="s">
-        <v>712</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -25162,10 +25200,10 @@
     <row r="94" spans="1:26" ht="12" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="C94" s="71" t="s">
         <v>713</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>714</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -25194,10 +25232,10 @@
     <row r="95" spans="1:26" ht="12" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="69" t="s">
+        <v>714</v>
+      </c>
+      <c r="C95" s="71" t="s">
         <v>715</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>716</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -25226,10 +25264,10 @@
     <row r="96" spans="1:26" ht="12" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="69" t="s">
+        <v>716</v>
+      </c>
+      <c r="C96" s="71" t="s">
         <v>717</v>
-      </c>
-      <c r="C96" s="71" t="s">
-        <v>718</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -25258,10 +25296,10 @@
     <row r="97" spans="1:26" ht="12" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="C97" s="71" t="s">
         <v>719</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>720</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -25290,10 +25328,10 @@
     <row r="98" spans="1:26" ht="12" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="69" t="s">
+        <v>720</v>
+      </c>
+      <c r="C98" s="71" t="s">
         <v>721</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>722</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -25322,10 +25360,10 @@
     <row r="99" spans="1:26" ht="12" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="69" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -25354,10 +25392,10 @@
     <row r="100" spans="1:26" ht="12" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="69" t="s">
+        <v>723</v>
+      </c>
+      <c r="C100" s="71" t="s">
         <v>724</v>
-      </c>
-      <c r="C100" s="71" t="s">
-        <v>725</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -25386,10 +25424,10 @@
     <row r="101" spans="1:26" ht="12" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="69" t="s">
+        <v>725</v>
+      </c>
+      <c r="C101" s="71" t="s">
         <v>726</v>
-      </c>
-      <c r="C101" s="71" t="s">
-        <v>727</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -25418,10 +25456,10 @@
     <row r="102" spans="1:26" ht="12" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="69" t="s">
+        <v>727</v>
+      </c>
+      <c r="C102" s="71" t="s">
         <v>728</v>
-      </c>
-      <c r="C102" s="71" t="s">
-        <v>729</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -25450,10 +25488,10 @@
     <row r="103" spans="1:26" ht="12" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="69" t="s">
+        <v>729</v>
+      </c>
+      <c r="C103" s="71" t="s">
         <v>730</v>
-      </c>
-      <c r="C103" s="71" t="s">
-        <v>731</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -25482,10 +25520,10 @@
     <row r="104" spans="1:26" ht="12" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="69" t="s">
+        <v>731</v>
+      </c>
+      <c r="C104" s="71" t="s">
         <v>732</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>733</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -25514,10 +25552,10 @@
     <row r="105" spans="1:26" ht="12" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="69" t="s">
+        <v>733</v>
+      </c>
+      <c r="C105" s="71" t="s">
         <v>734</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>735</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -25546,10 +25584,10 @@
     <row r="106" spans="1:26" ht="12" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="69" t="s">
+        <v>735</v>
+      </c>
+      <c r="C106" s="71" t="s">
         <v>736</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>737</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -25578,10 +25616,10 @@
     <row r="107" spans="1:26" ht="12" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="69" t="s">
+        <v>737</v>
+      </c>
+      <c r="C107" s="71" t="s">
         <v>738</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>739</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -25610,10 +25648,10 @@
     <row r="108" spans="1:26" ht="12" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="69" t="s">
+        <v>739</v>
+      </c>
+      <c r="C108" s="71" t="s">
         <v>740</v>
-      </c>
-      <c r="C108" s="71" t="s">
-        <v>741</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -25642,10 +25680,10 @@
     <row r="109" spans="1:26" ht="12" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="C109" s="71" t="s">
         <v>742</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>743</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -25674,10 +25712,10 @@
     <row r="110" spans="1:26" ht="12" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="69" t="s">
+        <v>743</v>
+      </c>
+      <c r="C110" s="71" t="s">
         <v>744</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>745</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -25706,10 +25744,10 @@
     <row r="111" spans="1:26" ht="12" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="69" t="s">
+        <v>745</v>
+      </c>
+      <c r="C111" s="71" t="s">
         <v>746</v>
-      </c>
-      <c r="C111" s="71" t="s">
-        <v>747</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -25738,10 +25776,10 @@
     <row r="112" spans="1:26" ht="12" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="69" t="s">
+        <v>747</v>
+      </c>
+      <c r="C112" s="71" t="s">
         <v>748</v>
-      </c>
-      <c r="C112" s="71" t="s">
-        <v>749</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -25770,10 +25808,10 @@
     <row r="113" spans="1:26" ht="12" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="69" t="s">
+        <v>749</v>
+      </c>
+      <c r="C113" s="71" t="s">
         <v>750</v>
-      </c>
-      <c r="C113" s="71" t="s">
-        <v>751</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -25802,10 +25840,10 @@
     <row r="114" spans="1:26" ht="12" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="69" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" s="71" t="s">
         <v>752</v>
-      </c>
-      <c r="C114" s="71" t="s">
-        <v>753</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -25834,10 +25872,10 @@
     <row r="115" spans="1:26" ht="12" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="69" t="s">
+        <v>753</v>
+      </c>
+      <c r="C115" s="71" t="s">
         <v>754</v>
-      </c>
-      <c r="C115" s="71" t="s">
-        <v>755</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -25866,10 +25904,10 @@
     <row r="116" spans="1:26" ht="12" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="69" t="s">
+        <v>755</v>
+      </c>
+      <c r="C116" s="71" t="s">
         <v>756</v>
-      </c>
-      <c r="C116" s="71" t="s">
-        <v>757</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -25898,10 +25936,10 @@
     <row r="117" spans="1:26" ht="12" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="69" t="s">
+        <v>757</v>
+      </c>
+      <c r="C117" s="71" t="s">
         <v>758</v>
-      </c>
-      <c r="C117" s="71" t="s">
-        <v>759</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -25930,10 +25968,10 @@
     <row r="118" spans="1:26" ht="12" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="69" t="s">
+        <v>759</v>
+      </c>
+      <c r="C118" s="71" t="s">
         <v>760</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>761</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -25962,10 +26000,10 @@
     <row r="119" spans="1:26" ht="12" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="C119" s="71" t="s">
         <v>762</v>
-      </c>
-      <c r="C119" s="71" t="s">
-        <v>763</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -25994,10 +26032,10 @@
     <row r="120" spans="1:26" ht="12" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="69" t="s">
+        <v>763</v>
+      </c>
+      <c r="C120" s="71" t="s">
         <v>764</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>765</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -26026,10 +26064,10 @@
     <row r="121" spans="1:26" ht="12" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="69" t="s">
+        <v>765</v>
+      </c>
+      <c r="C121" s="71" t="s">
         <v>766</v>
-      </c>
-      <c r="C121" s="71" t="s">
-        <v>767</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -26058,10 +26096,10 @@
     <row r="122" spans="1:26" ht="12" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="69" t="s">
+        <v>767</v>
+      </c>
+      <c r="C122" s="71" t="s">
         <v>768</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>769</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -26090,10 +26128,10 @@
     <row r="123" spans="1:26" ht="12" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="69" t="s">
+        <v>769</v>
+      </c>
+      <c r="C123" s="71" t="s">
         <v>770</v>
-      </c>
-      <c r="C123" s="71" t="s">
-        <v>771</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -26122,10 +26160,10 @@
     <row r="124" spans="1:26" ht="12" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="69" t="s">
+        <v>771</v>
+      </c>
+      <c r="C124" s="71" t="s">
         <v>772</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>773</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -26154,10 +26192,10 @@
     <row r="125" spans="1:26" ht="12" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="69" t="s">
+        <v>773</v>
+      </c>
+      <c r="C125" s="71" t="s">
         <v>774</v>
-      </c>
-      <c r="C125" s="71" t="s">
-        <v>775</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -26186,10 +26224,10 @@
     <row r="126" spans="1:26" ht="12" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="C126" s="71" t="s">
         <v>776</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>777</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -26218,10 +26256,10 @@
     <row r="127" spans="1:26" ht="12" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="69" t="s">
+        <v>777</v>
+      </c>
+      <c r="C127" s="71" t="s">
         <v>778</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>779</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -26250,10 +26288,10 @@
     <row r="128" spans="1:26" ht="12" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="69" t="s">
+        <v>779</v>
+      </c>
+      <c r="C128" s="71" t="s">
         <v>780</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>781</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -26282,10 +26320,10 @@
     <row r="129" spans="1:26" ht="12" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="69" t="s">
+        <v>781</v>
+      </c>
+      <c r="C129" s="71" t="s">
         <v>782</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>783</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -26314,10 +26352,10 @@
     <row r="130" spans="1:26" ht="12" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="69" t="s">
+        <v>783</v>
+      </c>
+      <c r="C130" s="71" t="s">
         <v>784</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>785</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -26346,10 +26384,10 @@
     <row r="131" spans="1:26" ht="12" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="69" t="s">
+        <v>785</v>
+      </c>
+      <c r="C131" s="71" t="s">
         <v>786</v>
-      </c>
-      <c r="C131" s="71" t="s">
-        <v>787</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -26378,10 +26416,10 @@
     <row r="132" spans="1:26" ht="12" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="C132" s="71" t="s">
         <v>788</v>
-      </c>
-      <c r="C132" s="71" t="s">
-        <v>789</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -26410,10 +26448,10 @@
     <row r="133" spans="1:26" ht="12" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="C133" s="71" t="s">
         <v>790</v>
-      </c>
-      <c r="C133" s="71" t="s">
-        <v>791</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -26442,10 +26480,10 @@
     <row r="134" spans="1:26" ht="12" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="69" t="s">
+        <v>791</v>
+      </c>
+      <c r="C134" s="71" t="s">
         <v>792</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>793</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -26474,10 +26512,10 @@
     <row r="135" spans="1:26" ht="12" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="69" t="s">
+        <v>793</v>
+      </c>
+      <c r="C135" s="71" t="s">
         <v>794</v>
-      </c>
-      <c r="C135" s="71" t="s">
-        <v>795</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -26506,10 +26544,10 @@
     <row r="136" spans="1:26" ht="12" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="69" t="s">
+        <v>795</v>
+      </c>
+      <c r="C136" s="71" t="s">
         <v>796</v>
-      </c>
-      <c r="C136" s="71" t="s">
-        <v>797</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -26538,10 +26576,10 @@
     <row r="137" spans="1:26" ht="12" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="86" t="s">
+        <v>797</v>
+      </c>
+      <c r="C137" s="87" t="s">
         <v>798</v>
-      </c>
-      <c r="C137" s="87" t="s">
-        <v>799</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -26570,10 +26608,10 @@
     <row r="138" spans="1:26" ht="12" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="88" t="s">
+        <v>799</v>
+      </c>
+      <c r="C138" s="87" t="s">
         <v>800</v>
-      </c>
-      <c r="C138" s="87" t="s">
-        <v>801</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -26602,10 +26640,10 @@
     <row r="139" spans="1:26" ht="12" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="88" t="s">
+        <v>801</v>
+      </c>
+      <c r="C139" s="87" t="s">
         <v>802</v>
-      </c>
-      <c r="C139" s="87" t="s">
-        <v>803</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -26634,10 +26672,10 @@
     <row r="140" spans="1:26" ht="12" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="88" t="s">
+        <v>803</v>
+      </c>
+      <c r="C140" s="87" t="s">
         <v>804</v>
-      </c>
-      <c r="C140" s="87" t="s">
-        <v>805</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -26666,13 +26704,13 @@
     <row r="141" spans="1:26" ht="12" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="89" t="s">
+        <v>805</v>
+      </c>
+      <c r="C141" s="90" t="s">
         <v>806</v>
       </c>
-      <c r="C141" s="90" t="s">
+      <c r="D141" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -26700,13 +26738,13 @@
     <row r="142" spans="1:26" ht="12" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="91" t="s">
+        <v>808</v>
+      </c>
+      <c r="C142" s="92" t="s">
         <v>809</v>
       </c>
-      <c r="C142" s="92" t="s">
+      <c r="D142" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -26818,7 +26856,7 @@
     <row r="146" spans="1:26" ht="12" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="64" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -26876,13 +26914,13 @@
     <row r="148" spans="1:26" ht="12.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="132" t="s">
-        <v>813</v>
-      </c>
-      <c r="D148" s="133"/>
-      <c r="E148" s="133"/>
-      <c r="F148" s="133"/>
-      <c r="G148" s="133"/>
+      <c r="C148" s="139" t="s">
+        <v>812</v>
+      </c>
+      <c r="D148" s="140"/>
+      <c r="E148" s="140"/>
+      <c r="F148" s="140"/>
+      <c r="G148" s="140"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -26906,13 +26944,13 @@
     <row r="149" spans="1:26" ht="75.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="132" t="s">
-        <v>814</v>
-      </c>
-      <c r="D149" s="133"/>
-      <c r="E149" s="133"/>
-      <c r="F149" s="133"/>
-      <c r="G149" s="133"/>
+      <c r="C149" s="139" t="s">
+        <v>813</v>
+      </c>
+      <c r="D149" s="140"/>
+      <c r="E149" s="140"/>
+      <c r="F149" s="140"/>
+      <c r="G149" s="140"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -26965,7 +27003,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -27023,7 +27061,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -27081,7 +27119,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -27111,7 +27149,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -27196,7 +27234,7 @@
     <row r="159" spans="1:26" ht="12" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="64" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -27255,7 +27293,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -27341,7 +27379,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -27399,7 +27437,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -27457,7 +27495,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -27514,7 +27552,7 @@
     <row r="170" spans="1:26" ht="12" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="94" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -27572,19 +27610,19 @@
     <row r="172" spans="1:26" ht="12" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="96" t="s">
+        <v>822</v>
+      </c>
+      <c r="C172" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="C172" s="97" t="s">
+      <c r="D172" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="D172" s="97" t="s">
+      <c r="E172" s="97" t="s">
         <v>825</v>
       </c>
-      <c r="E172" s="97" t="s">
+      <c r="F172" s="98" t="s">
         <v>826</v>
-      </c>
-      <c r="F172" s="98" t="s">
-        <v>827</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -27610,13 +27648,13 @@
     <row r="173" spans="1:26" ht="12" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="99" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C173" s="100">
         <v>1</v>
       </c>
       <c r="D173" s="100" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E173" s="101">
         <v>7500000</v>
@@ -27646,13 +27684,13 @@
     <row r="174" spans="1:26" ht="12" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C174" s="104">
         <v>2</v>
       </c>
       <c r="D174" s="104" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E174" s="105">
         <v>19000000</v>
@@ -27660,7 +27698,7 @@
       <c r="F174" s="106"/>
       <c r="G174" s="5"/>
       <c r="H174" s="107" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -27684,13 +27722,13 @@
     <row r="175" spans="1:26" ht="12" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C175" s="104">
         <v>3</v>
       </c>
       <c r="D175" s="104" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E175" s="105">
         <v>19000000</v>
@@ -27720,13 +27758,13 @@
     <row r="176" spans="1:26" ht="12" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="103" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C176" s="104">
         <v>1</v>
       </c>
       <c r="D176" s="104" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E176" s="105">
         <v>36500000</v>
@@ -27734,7 +27772,7 @@
       <c r="F176" s="106"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -27758,13 +27796,13 @@
     <row r="177" spans="1:26" ht="12" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="103" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C177" s="104">
         <v>2</v>
       </c>
       <c r="D177" s="104" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E177" s="105">
         <v>27500000</v>
@@ -27794,13 +27832,13 @@
     <row r="178" spans="1:26" ht="12" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C178" s="104">
         <v>1</v>
       </c>
       <c r="D178" s="104" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E178" s="105">
         <v>15000000</v>
@@ -27808,7 +27846,7 @@
       <c r="F178" s="106"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -27832,13 +27870,13 @@
     <row r="179" spans="1:26" ht="12" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C179" s="104">
         <v>2</v>
       </c>
       <c r="D179" s="104" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E179" s="105">
         <v>15000000</v>
@@ -27846,7 +27884,7 @@
       <c r="F179" s="106"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -27870,13 +27908,13 @@
     <row r="180" spans="1:26" ht="12" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C180" s="104">
         <v>1</v>
       </c>
       <c r="D180" s="104" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E180" s="105">
         <v>15000000</v>
@@ -27884,7 +27922,7 @@
       <c r="F180" s="106"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -27908,13 +27946,13 @@
     <row r="181" spans="1:26" ht="12" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C181" s="104">
         <v>2</v>
       </c>
       <c r="D181" s="104" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E181" s="105">
         <v>27500000</v>
@@ -27922,7 +27960,7 @@
       <c r="F181" s="106"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -27952,7 +27990,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="104" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E182" s="105">
         <v>27500000</v>
@@ -27960,7 +27998,7 @@
       <c r="F182" s="106"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -27990,7 +28028,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="104" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E183" s="105">
         <v>38500000</v>
@@ -28026,7 +28064,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="104" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E184" s="105">
         <v>27500000</v>
@@ -28034,7 +28072,7 @@
       <c r="F184" s="106"/>
       <c r="G184" s="5"/>
       <c r="H184" s="108" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -28064,15 +28102,15 @@
         <v>2</v>
       </c>
       <c r="D185" s="104" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E185" s="105">
         <v>38500000</v>
       </c>
       <c r="F185" s="106"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="132" t="s">
-        <v>853</v>
+      <c r="H185" s="139" t="s">
+        <v>852</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -28102,14 +28140,14 @@
         <v>1</v>
       </c>
       <c r="D186" s="104" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E186" s="105">
         <v>27500000</v>
       </c>
       <c r="F186" s="106"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="133"/>
+      <c r="H186" s="140"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -28138,7 +28176,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="104" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E187" s="105">
         <v>38500000</v>
@@ -28174,7 +28212,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="104" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E188" s="105">
         <v>27500000</v>
@@ -28210,7 +28248,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="104" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E189" s="105">
         <v>38500000</v>
@@ -28240,13 +28278,13 @@
     <row r="190" spans="1:26" ht="12" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="103" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C190" s="104">
         <v>1</v>
       </c>
       <c r="D190" s="104" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E190" s="105">
         <v>15000000</v>
@@ -28276,13 +28314,13 @@
     <row r="191" spans="1:26" ht="12" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="103" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C191" s="104">
         <v>2</v>
       </c>
       <c r="D191" s="104" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E191" s="105">
         <v>38500000</v>
@@ -28312,13 +28350,13 @@
     <row r="192" spans="1:26" ht="12" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="103" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C192" s="104">
         <v>3</v>
       </c>
       <c r="D192" s="104" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E192" s="105">
         <v>38500000</v>
@@ -28348,13 +28386,13 @@
     <row r="193" spans="1:26" ht="12" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="103" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C193" s="104">
         <v>4</v>
       </c>
       <c r="D193" s="104" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E193" s="105">
         <v>38500000</v>
@@ -28384,13 +28422,13 @@
     <row r="194" spans="1:26" ht="12" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="103" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C194" s="104">
         <v>1</v>
       </c>
       <c r="D194" s="104" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E194" s="105">
         <v>27500000</v>
@@ -28420,13 +28458,13 @@
     <row r="195" spans="1:26" ht="12" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="103" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C195" s="104">
         <v>2</v>
       </c>
       <c r="D195" s="104" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E195" s="105"/>
       <c r="F195" s="106">
@@ -28456,13 +28494,13 @@
     <row r="196" spans="1:26" ht="12" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C196" s="104">
         <v>1</v>
       </c>
       <c r="D196" s="104" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E196" s="105"/>
       <c r="F196" s="106">
@@ -28492,13 +28530,13 @@
     <row r="197" spans="1:26" ht="12" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C197" s="104">
         <v>2</v>
       </c>
       <c r="D197" s="104" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E197" s="105"/>
       <c r="F197" s="106">
@@ -28528,13 +28566,13 @@
     <row r="198" spans="1:26" ht="12" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C198" s="104">
         <v>3</v>
       </c>
       <c r="D198" s="104" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E198" s="105"/>
       <c r="F198" s="106">
@@ -28564,13 +28602,13 @@
     <row r="199" spans="1:26" ht="12" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C199" s="104">
         <v>4</v>
       </c>
       <c r="D199" s="104" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E199" s="105"/>
       <c r="F199" s="106">
@@ -28600,13 +28638,13 @@
     <row r="200" spans="1:26" ht="12" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="103" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C200" s="104">
         <v>1</v>
       </c>
       <c r="D200" s="104" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E200" s="105">
         <v>20500000</v>
@@ -28636,13 +28674,13 @@
     <row r="201" spans="1:26" ht="12" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="103" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C201" s="104">
         <v>2</v>
       </c>
       <c r="D201" s="104" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E201" s="105"/>
       <c r="F201" s="106">
@@ -28672,13 +28710,13 @@
     <row r="202" spans="1:26" ht="12" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="103" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C202" s="104">
         <v>1</v>
       </c>
       <c r="D202" s="104" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E202" s="105">
         <v>15000000</v>
@@ -28708,13 +28746,13 @@
     <row r="203" spans="1:26" ht="12" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="109" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C203" s="110">
         <v>2</v>
       </c>
       <c r="D203" s="110" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E203" s="111">
         <v>38500000</v>
@@ -28800,7 +28838,7 @@
     <row r="206" spans="1:26" ht="12" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="94" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -28858,19 +28896,19 @@
     <row r="208" spans="1:26" ht="12" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="113" t="s">
+        <v>822</v>
+      </c>
+      <c r="C208" s="114" t="s">
         <v>823</v>
       </c>
-      <c r="C208" s="114" t="s">
+      <c r="D208" s="114" t="s">
         <v>824</v>
       </c>
-      <c r="D208" s="114" t="s">
+      <c r="E208" s="114" t="s">
         <v>825</v>
       </c>
-      <c r="E208" s="114" t="s">
+      <c r="F208" s="115" t="s">
         <v>826</v>
-      </c>
-      <c r="F208" s="115" t="s">
-        <v>827</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
@@ -28896,13 +28934,13 @@
     <row r="209" spans="1:26" ht="12" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="116" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C209" s="100">
         <v>1</v>
       </c>
       <c r="D209" s="100" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E209" s="101">
         <v>7500000</v>
@@ -28932,13 +28970,13 @@
     <row r="210" spans="1:26" ht="12" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="117" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C210" s="104">
         <v>2</v>
       </c>
       <c r="D210" s="104" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E210" s="105">
         <v>19000000</v>
@@ -28968,13 +29006,13 @@
     <row r="211" spans="1:26" ht="12" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="117" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C211" s="104">
         <v>3</v>
       </c>
       <c r="D211" s="104" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E211" s="105">
         <v>19000000</v>
@@ -29004,13 +29042,13 @@
     <row r="212" spans="1:26" ht="12" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="117" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C212" s="104">
         <v>1</v>
       </c>
       <c r="D212" s="104" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E212" s="105">
         <v>36500000</v>
@@ -29040,13 +29078,13 @@
     <row r="213" spans="1:26" ht="12" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="117" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C213" s="104">
         <v>2</v>
       </c>
       <c r="D213" s="104" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E213" s="105">
         <v>27500000</v>
@@ -29082,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="104" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E214" s="105">
         <v>15000000</v>
@@ -29118,7 +29156,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="104" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E215" s="105">
         <v>15000000</v>
@@ -29148,13 +29186,13 @@
     <row r="216" spans="1:26" ht="12" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="117" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C216" s="104">
         <v>1</v>
       </c>
       <c r="D216" s="104" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E216" s="105">
         <v>15000000</v>
@@ -29184,13 +29222,13 @@
     <row r="217" spans="1:26" ht="12" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="117" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C217" s="104">
         <v>2</v>
       </c>
       <c r="D217" s="104" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E217" s="105">
         <v>27500000</v>
@@ -29220,13 +29258,13 @@
     <row r="218" spans="1:26" ht="12" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="117" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C218" s="104">
         <v>1</v>
       </c>
       <c r="D218" s="104" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E218" s="105">
         <v>27500000</v>
@@ -29256,13 +29294,13 @@
     <row r="219" spans="1:26" ht="12" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="117" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C219" s="104">
         <v>2</v>
       </c>
       <c r="D219" s="104" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E219" s="105">
         <v>38500000</v>
@@ -29298,7 +29336,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="104" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E220" s="105">
         <v>15000000</v>
@@ -29328,13 +29366,13 @@
     <row r="221" spans="1:26" ht="12" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C221" s="104">
         <v>2</v>
       </c>
       <c r="D221" s="104" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E221" s="105">
         <v>38500000</v>
@@ -29364,13 +29402,13 @@
     <row r="222" spans="1:26" ht="12" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C222" s="104">
         <v>3</v>
       </c>
       <c r="D222" s="104" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E222" s="105">
         <v>38500000</v>
@@ -29400,13 +29438,13 @@
     <row r="223" spans="1:26" ht="12" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C223" s="104">
         <v>4</v>
       </c>
       <c r="D223" s="104" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E223" s="105">
         <v>38500000</v>
@@ -29436,13 +29474,13 @@
     <row r="224" spans="1:26" ht="12" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="117" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C224" s="104">
         <v>1</v>
       </c>
       <c r="D224" s="104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E224" s="105">
         <v>27500000</v>
@@ -29472,16 +29510,16 @@
     <row r="225" spans="1:26" ht="12" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="117" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C225" s="104">
         <v>2</v>
       </c>
       <c r="D225" s="104" t="s">
+        <v>894</v>
+      </c>
+      <c r="E225" s="105" t="s">
         <v>895</v>
-      </c>
-      <c r="E225" s="105" t="s">
-        <v>896</v>
       </c>
       <c r="F225" s="106">
         <v>150</v>
@@ -29510,16 +29548,16 @@
     <row r="226" spans="1:26" ht="12" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="117" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C226" s="104">
         <v>1</v>
       </c>
       <c r="D226" s="104" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E226" s="105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F226" s="106">
         <v>1000</v>
@@ -29548,16 +29586,16 @@
     <row r="227" spans="1:26" ht="12" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="117" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C227" s="104">
         <v>2</v>
       </c>
       <c r="D227" s="104" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E227" s="105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F227" s="106">
         <v>1500</v>
@@ -29586,16 +29624,16 @@
     <row r="228" spans="1:26" ht="12" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="117" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C228" s="104">
         <v>3</v>
       </c>
       <c r="D228" s="104" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E228" s="105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F228" s="106">
         <v>1250</v>
@@ -29624,16 +29662,16 @@
     <row r="229" spans="1:26" ht="12" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="117" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C229" s="104">
         <v>4</v>
       </c>
       <c r="D229" s="104" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E229" s="105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F229" s="106">
         <v>1250</v>
@@ -29662,13 +29700,13 @@
     <row r="230" spans="1:26" ht="12" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="117" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C230" s="104">
         <v>1</v>
       </c>
       <c r="D230" s="104" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E230" s="105">
         <v>20500000</v>
@@ -29698,16 +29736,16 @@
     <row r="231" spans="1:26" ht="12" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="117" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C231" s="104">
         <v>2</v>
       </c>
       <c r="D231" s="104" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E231" s="105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F231" s="106">
         <v>750</v>
@@ -29736,13 +29774,13 @@
     <row r="232" spans="1:26" ht="12" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="117" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C232" s="104">
         <v>1</v>
       </c>
       <c r="D232" s="104" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E232" s="105">
         <v>15000000</v>
@@ -29772,13 +29810,13 @@
     <row r="233" spans="1:26" ht="12" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="118" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C233" s="110">
         <v>2</v>
       </c>
       <c r="D233" s="110" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E233" s="111">
         <v>38500000</v>
@@ -29892,7 +29930,7 @@
     <row r="237" spans="1:26" ht="12" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="64" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -29950,14 +29988,14 @@
     <row r="239" spans="1:26" ht="12" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="C239" s="76" t="s">
         <v>653</v>
-      </c>
-      <c r="C239" s="76" t="s">
-        <v>654</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -29984,10 +30022,10 @@
     <row r="240" spans="1:26" ht="12" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="37" t="s">
+        <v>907</v>
+      </c>
+      <c r="C240" s="119" t="s">
         <v>908</v>
-      </c>
-      <c r="C240" s="119" t="s">
-        <v>909</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -30016,14 +30054,14 @@
     <row r="241" spans="1:26" ht="12" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="C241" s="119" t="s">
         <v>910</v>
-      </c>
-      <c r="C241" s="119" t="s">
-        <v>911</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -30050,14 +30088,14 @@
     <row r="242" spans="1:26" ht="12" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="120" t="s">
+        <v>912</v>
+      </c>
+      <c r="C242" s="121" t="s">
         <v>913</v>
-      </c>
-      <c r="C242" s="121" t="s">
-        <v>914</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -30115,7 +30153,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -30173,7 +30211,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -30231,7 +30269,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -30261,7 +30299,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -51335,11 +51373,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" customWidth="1"/>
+    <col min="2" max="2" width="58.41796875" customWidth="1"/>
+    <col min="3" max="26" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
@@ -51349,7 +51387,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="122" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
@@ -51357,7 +51395,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
@@ -51365,7 +51403,7 @@
         <v>116</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
@@ -51373,7 +51411,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
@@ -51381,7 +51419,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="122" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
